--- a/third_party/Excel_Handle/AVL_Cmp_Same_List_Example_compared.xlsx
+++ b/third_party/Excel_Handle/AVL_Cmp_Same_List_Example_compared.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AVL" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -104,8 +104,21 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <b val="1"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -140,6 +153,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -280,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,14 +423,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,6 +526,37 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mackey-JinHuan Lao</author>
+  </authors>
+  <commentList>
+    <comment ref="B50" authorId="0" shapeId="0">
+      <text>
+        <t>Mackey-JinHuan Lao:for New part test</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mackey-JinHuan Lao</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0" shapeId="0">
+      <text>
+        <t>Mackey-JinHuan Lao:
+for delete part test</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,8 +828,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -803,6 +884,31 @@
           <t>Author</t>
         </is>
       </c>
+      <c r="H1" s="45" t="inlineStr">
+        <is>
+          <t>same</t>
+        </is>
+      </c>
+      <c r="I1" s="46" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="J1" s="47" t="inlineStr">
+        <is>
+          <t>AVL_Cmp New Ordering Code</t>
+        </is>
+      </c>
+      <c r="K1" s="48" t="inlineStr">
+        <is>
+          <t>Part to delete</t>
+        </is>
+      </c>
+      <c r="L1" s="49" t="inlineStr">
+        <is>
+          <t>AVL_Cmp new part</t>
+        </is>
+      </c>
       <c r="S1" s="21" t="n"/>
     </row>
     <row r="2" ht="25.5" customFormat="1" customHeight="1" s="37">
@@ -979,44 +1085,44 @@
           <t>2TFU901279U1001</t>
         </is>
       </c>
-      <c r="C7" s="45" t="inlineStr">
+      <c r="C7" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 10uF 10% 16V 0805 X7R</t>
         </is>
       </c>
       <c r="D7" s="0" t="n"/>
-      <c r="E7" s="45" t="inlineStr">
+      <c r="E7" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F7" s="45" t="inlineStr">
+      <c r="F7" s="50" t="inlineStr">
         <is>
           <t>C0805X7R106K160NTH</t>
         </is>
       </c>
-      <c r="G7" s="45" t="inlineStr">
+      <c r="G7" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H7" s="45" t="inlineStr">
+      <c r="H7" s="50" t="inlineStr">
         <is>
           <t>0805B106K160NT</t>
         </is>
       </c>
-      <c r="I7" s="45" t="n"/>
-      <c r="J7" s="45" t="n"/>
-      <c r="K7" s="45" t="n"/>
-      <c r="L7" s="45" t="n"/>
-      <c r="M7" s="45" t="n"/>
-      <c r="N7" s="45" t="n"/>
-      <c r="O7" s="45" t="n"/>
-      <c r="P7" s="45" t="n"/>
-      <c r="Q7" s="45" t="n"/>
-      <c r="R7" s="45" t="n"/>
-      <c r="S7" s="46" t="n"/>
-      <c r="T7" s="46" t="n"/>
+      <c r="I7" s="50" t="n"/>
+      <c r="J7" s="50" t="n"/>
+      <c r="K7" s="50" t="n"/>
+      <c r="L7" s="50" t="n"/>
+      <c r="M7" s="50" t="n"/>
+      <c r="N7" s="50" t="n"/>
+      <c r="O7" s="50" t="n"/>
+      <c r="P7" s="50" t="n"/>
+      <c r="Q7" s="50" t="n"/>
+      <c r="R7" s="50" t="n"/>
+      <c r="S7" s="45" t="n"/>
+      <c r="T7" s="45" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="29" t="n">
@@ -1027,24 +1133,28 @@
           <t>2TFU901297U1001</t>
         </is>
       </c>
-      <c r="C8" s="47" t="inlineStr">
+      <c r="C8" s="51" t="inlineStr">
         <is>
           <t>THT PCB Ternimal male 2P 2.5mm 3A 250V</t>
         </is>
       </c>
       <c r="D8" s="29" t="n"/>
-      <c r="I8" s="46" t="n"/>
-      <c r="J8" s="46" t="n"/>
-      <c r="K8" s="46" t="n"/>
-      <c r="L8" s="46" t="n"/>
-      <c r="M8" s="46" t="n"/>
-      <c r="N8" s="46" t="n"/>
-      <c r="O8" s="46" t="n"/>
-      <c r="P8" s="46" t="n"/>
-      <c r="Q8" s="46" t="n"/>
-      <c r="R8" s="46" t="n"/>
-      <c r="S8" s="48" t="n"/>
-      <c r="T8" s="46" t="n"/>
+      <c r="E8" s="46" t="n"/>
+      <c r="F8" s="46" t="n"/>
+      <c r="G8" s="46" t="n"/>
+      <c r="H8" s="46" t="n"/>
+      <c r="I8" s="45" t="n"/>
+      <c r="J8" s="45" t="n"/>
+      <c r="K8" s="45" t="n"/>
+      <c r="L8" s="45" t="n"/>
+      <c r="M8" s="45" t="n"/>
+      <c r="N8" s="45" t="n"/>
+      <c r="O8" s="45" t="n"/>
+      <c r="P8" s="45" t="n"/>
+      <c r="Q8" s="45" t="n"/>
+      <c r="R8" s="45" t="n"/>
+      <c r="S8" s="52" t="n"/>
+      <c r="T8" s="45" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="29" t="n">
@@ -1055,22 +1165,28 @@
           <t>2TFU901316U1001</t>
         </is>
       </c>
-      <c r="C9" s="45" t="inlineStr">
+      <c r="C9" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 2R2 1% 200ppm 1W 2512</t>
         </is>
       </c>
       <c r="D9" s="29" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="46" t="n"/>
-      <c r="P9" s="46" t="n"/>
-      <c r="Q9" s="46" t="n"/>
-      <c r="R9" s="46" t="n"/>
-      <c r="S9" s="48" t="n"/>
-      <c r="T9" s="46" t="n"/>
+      <c r="E9" s="46" t="n"/>
+      <c r="F9" s="46" t="n"/>
+      <c r="G9" s="46" t="n"/>
+      <c r="H9" s="46" t="n"/>
+      <c r="I9" s="46" t="n"/>
+      <c r="J9" s="46" t="n"/>
+      <c r="K9" s="45" t="n"/>
+      <c r="L9" s="45" t="n"/>
+      <c r="M9" s="45" t="n"/>
+      <c r="N9" s="45" t="n"/>
+      <c r="O9" s="45" t="n"/>
+      <c r="P9" s="45" t="n"/>
+      <c r="Q9" s="45" t="n"/>
+      <c r="R9" s="45" t="n"/>
+      <c r="S9" s="52" t="n"/>
+      <c r="T9" s="45" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="29" t="n">
@@ -1081,26 +1197,28 @@
           <t>2TFU901299U1001</t>
         </is>
       </c>
-      <c r="C10" s="45" t="inlineStr">
+      <c r="C10" s="50" t="inlineStr">
         <is>
           <t>SMD LED Red 2.1V 30mA 3x1x2mm 90°</t>
         </is>
       </c>
       <c r="D10" s="29" t="n"/>
-      <c r="G10" s="46" t="n"/>
-      <c r="H10" s="46" t="n"/>
-      <c r="I10" s="46" t="n"/>
-      <c r="J10" s="46" t="n"/>
-      <c r="K10" s="46" t="n"/>
-      <c r="L10" s="46" t="n"/>
-      <c r="M10" s="46" t="n"/>
-      <c r="N10" s="46" t="n"/>
-      <c r="O10" s="46" t="n"/>
-      <c r="P10" s="46" t="n"/>
-      <c r="Q10" s="46" t="n"/>
-      <c r="R10" s="46" t="n"/>
-      <c r="S10" s="48" t="n"/>
-      <c r="T10" s="46" t="n"/>
+      <c r="E10" s="46" t="n"/>
+      <c r="F10" s="46" t="n"/>
+      <c r="G10" s="45" t="n"/>
+      <c r="H10" s="45" t="n"/>
+      <c r="I10" s="45" t="n"/>
+      <c r="J10" s="45" t="n"/>
+      <c r="K10" s="45" t="n"/>
+      <c r="L10" s="45" t="n"/>
+      <c r="M10" s="45" t="n"/>
+      <c r="N10" s="45" t="n"/>
+      <c r="O10" s="45" t="n"/>
+      <c r="P10" s="45" t="n"/>
+      <c r="Q10" s="45" t="n"/>
+      <c r="R10" s="45" t="n"/>
+      <c r="S10" s="52" t="n"/>
+      <c r="T10" s="45" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="29" t="n">
@@ -1111,22 +1229,28 @@
           <t>2TFU901296U1001</t>
         </is>
       </c>
-      <c r="C11" s="45" t="inlineStr">
+      <c r="C11" s="50" t="inlineStr">
         <is>
           <t>SMD Mini USB Algnment Pin</t>
         </is>
       </c>
       <c r="D11" s="29" t="n"/>
-      <c r="K11" s="46" t="n"/>
-      <c r="L11" s="46" t="n"/>
-      <c r="M11" s="46" t="n"/>
-      <c r="N11" s="46" t="n"/>
-      <c r="O11" s="46" t="n"/>
-      <c r="P11" s="46" t="n"/>
-      <c r="Q11" s="46" t="n"/>
-      <c r="R11" s="46" t="n"/>
-      <c r="S11" s="48" t="n"/>
-      <c r="T11" s="46" t="n"/>
+      <c r="E11" s="46" t="n"/>
+      <c r="F11" s="46" t="n"/>
+      <c r="G11" s="46" t="n"/>
+      <c r="H11" s="46" t="n"/>
+      <c r="I11" s="46" t="n"/>
+      <c r="J11" s="46" t="n"/>
+      <c r="K11" s="45" t="n"/>
+      <c r="L11" s="45" t="n"/>
+      <c r="M11" s="45" t="n"/>
+      <c r="N11" s="45" t="n"/>
+      <c r="O11" s="45" t="n"/>
+      <c r="P11" s="45" t="n"/>
+      <c r="Q11" s="45" t="n"/>
+      <c r="R11" s="45" t="n"/>
+      <c r="S11" s="52" t="n"/>
+      <c r="T11" s="45" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="29" t="n">
@@ -1137,24 +1261,28 @@
           <t>2TFU901315U1001</t>
         </is>
       </c>
-      <c r="C12" s="45" t="inlineStr">
+      <c r="C12" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 27k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
       <c r="D12" s="29" t="n"/>
-      <c r="I12" s="46" t="n"/>
-      <c r="J12" s="46" t="n"/>
-      <c r="K12" s="46" t="n"/>
-      <c r="L12" s="46" t="n"/>
-      <c r="M12" s="46" t="n"/>
-      <c r="N12" s="46" t="n"/>
-      <c r="O12" s="46" t="n"/>
-      <c r="P12" s="46" t="n"/>
-      <c r="Q12" s="46" t="n"/>
-      <c r="R12" s="46" t="n"/>
-      <c r="S12" s="48" t="n"/>
-      <c r="T12" s="46" t="n"/>
+      <c r="E12" s="46" t="n"/>
+      <c r="F12" s="46" t="n"/>
+      <c r="G12" s="46" t="n"/>
+      <c r="H12" s="46" t="n"/>
+      <c r="I12" s="45" t="n"/>
+      <c r="J12" s="45" t="n"/>
+      <c r="K12" s="45" t="n"/>
+      <c r="L12" s="45" t="n"/>
+      <c r="M12" s="45" t="n"/>
+      <c r="N12" s="45" t="n"/>
+      <c r="O12" s="45" t="n"/>
+      <c r="P12" s="45" t="n"/>
+      <c r="Q12" s="45" t="n"/>
+      <c r="R12" s="45" t="n"/>
+      <c r="S12" s="52" t="n"/>
+      <c r="T12" s="45" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="29" t="n">
@@ -1165,44 +1293,44 @@
           <t>2TFU901286U1001</t>
         </is>
       </c>
-      <c r="C13" s="45" t="inlineStr">
+      <c r="C13" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 1nF 10% 16V 0201 X7R</t>
         </is>
       </c>
       <c r="D13" s="29" t="n"/>
-      <c r="E13" s="45" t="inlineStr">
+      <c r="E13" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F13" s="45" t="inlineStr">
+      <c r="F13" s="50" t="inlineStr">
         <is>
           <t>C0201X7R102K160NTA</t>
         </is>
       </c>
-      <c r="G13" s="45" t="inlineStr">
+      <c r="G13" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H13" s="45" t="inlineStr">
+      <c r="H13" s="50" t="inlineStr">
         <is>
           <t>0201B102K160NT</t>
         </is>
       </c>
-      <c r="I13" s="46" t="n"/>
-      <c r="J13" s="46" t="n"/>
-      <c r="K13" s="46" t="n"/>
-      <c r="L13" s="46" t="n"/>
-      <c r="M13" s="46" t="n"/>
-      <c r="N13" s="46" t="n"/>
-      <c r="O13" s="46" t="n"/>
-      <c r="P13" s="46" t="n"/>
-      <c r="Q13" s="46" t="n"/>
-      <c r="R13" s="46" t="n"/>
-      <c r="S13" s="48" t="n"/>
-      <c r="T13" s="46" t="n"/>
+      <c r="I13" s="45" t="n"/>
+      <c r="J13" s="45" t="n"/>
+      <c r="K13" s="45" t="n"/>
+      <c r="L13" s="45" t="n"/>
+      <c r="M13" s="45" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="52" t="n"/>
+      <c r="T13" s="45" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="29" t="n">
@@ -1213,24 +1341,28 @@
           <t>2TFU901307U1001</t>
         </is>
       </c>
-      <c r="C14" s="45" t="inlineStr">
+      <c r="C14" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFm Res 100k 1% 200ppm 62.5mW 0402</t>
         </is>
       </c>
       <c r="D14" s="29" t="n"/>
-      <c r="I14" s="46" t="n"/>
-      <c r="J14" s="46" t="n"/>
-      <c r="K14" s="46" t="n"/>
-      <c r="L14" s="46" t="n"/>
-      <c r="M14" s="46" t="n"/>
-      <c r="N14" s="46" t="n"/>
-      <c r="O14" s="46" t="n"/>
-      <c r="P14" s="46" t="n"/>
-      <c r="Q14" s="46" t="n"/>
-      <c r="R14" s="46" t="n"/>
-      <c r="S14" s="48" t="n"/>
-      <c r="T14" s="46" t="n"/>
+      <c r="E14" s="46" t="n"/>
+      <c r="F14" s="46" t="n"/>
+      <c r="G14" s="46" t="n"/>
+      <c r="H14" s="46" t="n"/>
+      <c r="I14" s="45" t="n"/>
+      <c r="J14" s="45" t="n"/>
+      <c r="K14" s="45" t="n"/>
+      <c r="L14" s="45" t="n"/>
+      <c r="M14" s="45" t="n"/>
+      <c r="N14" s="45" t="n"/>
+      <c r="O14" s="45" t="n"/>
+      <c r="P14" s="45" t="n"/>
+      <c r="Q14" s="45" t="n"/>
+      <c r="R14" s="45" t="n"/>
+      <c r="S14" s="52" t="n"/>
+      <c r="T14" s="45" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="29" t="n">
@@ -1241,36 +1373,36 @@
           <t>2TFU901275U1001</t>
         </is>
       </c>
-      <c r="C15" s="45" t="inlineStr">
+      <c r="C15" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 2u2 10% 25V 1206 X7R</t>
         </is>
       </c>
       <c r="D15" s="29" t="n"/>
-      <c r="E15" s="45" t="inlineStr">
+      <c r="E15" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F15" s="45" t="inlineStr">
+      <c r="F15" s="50" t="inlineStr">
         <is>
           <t>1206B225K250NT</t>
         </is>
       </c>
-      <c r="G15" s="46" t="n"/>
-      <c r="H15" s="46" t="n"/>
-      <c r="I15" s="46" t="n"/>
-      <c r="J15" s="46" t="n"/>
-      <c r="K15" s="46" t="n"/>
-      <c r="L15" s="46" t="n"/>
-      <c r="M15" s="46" t="n"/>
-      <c r="N15" s="46" t="n"/>
-      <c r="O15" s="46" t="n"/>
-      <c r="P15" s="46" t="n"/>
-      <c r="Q15" s="46" t="n"/>
-      <c r="R15" s="46" t="n"/>
-      <c r="S15" s="48" t="n"/>
-      <c r="T15" s="46" t="n"/>
+      <c r="G15" s="45" t="n"/>
+      <c r="H15" s="45" t="n"/>
+      <c r="I15" s="45" t="n"/>
+      <c r="J15" s="45" t="n"/>
+      <c r="K15" s="45" t="n"/>
+      <c r="L15" s="45" t="n"/>
+      <c r="M15" s="45" t="n"/>
+      <c r="N15" s="45" t="n"/>
+      <c r="O15" s="45" t="n"/>
+      <c r="P15" s="45" t="n"/>
+      <c r="Q15" s="45" t="n"/>
+      <c r="R15" s="45" t="n"/>
+      <c r="S15" s="52" t="n"/>
+      <c r="T15" s="45" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="29" t="n">
@@ -1281,22 +1413,28 @@
           <t>2TFU901314U1001</t>
         </is>
       </c>
-      <c r="C16" s="45" t="inlineStr">
+      <c r="C16" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 1k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
       <c r="D16" s="29" t="n"/>
-      <c r="K16" s="46" t="n"/>
-      <c r="L16" s="46" t="n"/>
-      <c r="M16" s="46" t="n"/>
-      <c r="N16" s="46" t="n"/>
-      <c r="O16" s="46" t="n"/>
-      <c r="P16" s="46" t="n"/>
-      <c r="Q16" s="46" t="n"/>
-      <c r="R16" s="46" t="n"/>
-      <c r="S16" s="48" t="n"/>
-      <c r="T16" s="46" t="n"/>
+      <c r="E16" s="46" t="n"/>
+      <c r="F16" s="46" t="n"/>
+      <c r="G16" s="46" t="n"/>
+      <c r="H16" s="46" t="n"/>
+      <c r="I16" s="46" t="n"/>
+      <c r="J16" s="46" t="n"/>
+      <c r="K16" s="45" t="n"/>
+      <c r="L16" s="45" t="n"/>
+      <c r="M16" s="45" t="n"/>
+      <c r="N16" s="45" t="n"/>
+      <c r="O16" s="45" t="n"/>
+      <c r="P16" s="45" t="n"/>
+      <c r="Q16" s="45" t="n"/>
+      <c r="R16" s="45" t="n"/>
+      <c r="S16" s="52" t="n"/>
+      <c r="T16" s="45" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="29" t="n">
@@ -1307,22 +1445,28 @@
           <t>2TFU901300U1001</t>
         </is>
       </c>
-      <c r="C17" s="45" t="inlineStr">
+      <c r="C17" s="50" t="inlineStr">
         <is>
           <t>SMD Bridge Rect 600V 0.8A MBS</t>
         </is>
       </c>
       <c r="D17" s="29" t="n"/>
-      <c r="K17" s="46" t="n"/>
-      <c r="L17" s="46" t="n"/>
-      <c r="M17" s="46" t="n"/>
-      <c r="N17" s="46" t="n"/>
-      <c r="O17" s="46" t="n"/>
-      <c r="P17" s="46" t="n"/>
-      <c r="Q17" s="46" t="n"/>
-      <c r="R17" s="46" t="n"/>
-      <c r="S17" s="48" t="n"/>
-      <c r="T17" s="46" t="n"/>
+      <c r="E17" s="46" t="n"/>
+      <c r="F17" s="46" t="n"/>
+      <c r="G17" s="46" t="n"/>
+      <c r="H17" s="46" t="n"/>
+      <c r="I17" s="46" t="n"/>
+      <c r="J17" s="46" t="n"/>
+      <c r="K17" s="45" t="n"/>
+      <c r="L17" s="45" t="n"/>
+      <c r="M17" s="45" t="n"/>
+      <c r="N17" s="45" t="n"/>
+      <c r="O17" s="45" t="n"/>
+      <c r="P17" s="45" t="n"/>
+      <c r="Q17" s="45" t="n"/>
+      <c r="R17" s="45" t="n"/>
+      <c r="S17" s="52" t="n"/>
+      <c r="T17" s="45" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="29" t="n">
@@ -1333,36 +1477,36 @@
           <t>2TFU901291U1001</t>
         </is>
       </c>
-      <c r="C18" s="45" t="inlineStr">
+      <c r="C18" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 2n2 5% 25V 0402 COG</t>
         </is>
       </c>
       <c r="D18" s="29" t="n"/>
-      <c r="E18" s="45" t="inlineStr">
+      <c r="E18" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F18" s="45" t="inlineStr">
+      <c r="F18" s="50" t="inlineStr">
         <is>
           <t>C0402C0G222J250NTN</t>
         </is>
       </c>
-      <c r="G18" s="46" t="n"/>
-      <c r="H18" s="46" t="n"/>
-      <c r="I18" s="46" t="n"/>
-      <c r="J18" s="46" t="n"/>
-      <c r="K18" s="46" t="n"/>
-      <c r="L18" s="46" t="n"/>
-      <c r="M18" s="46" t="n"/>
-      <c r="N18" s="46" t="n"/>
-      <c r="O18" s="46" t="n"/>
-      <c r="P18" s="46" t="n"/>
-      <c r="Q18" s="46" t="n"/>
-      <c r="R18" s="46" t="n"/>
-      <c r="S18" s="48" t="n"/>
-      <c r="T18" s="46" t="n"/>
+      <c r="G18" s="45" t="n"/>
+      <c r="H18" s="45" t="n"/>
+      <c r="I18" s="45" t="n"/>
+      <c r="J18" s="45" t="n"/>
+      <c r="K18" s="45" t="n"/>
+      <c r="L18" s="45" t="n"/>
+      <c r="M18" s="45" t="n"/>
+      <c r="N18" s="45" t="n"/>
+      <c r="O18" s="45" t="n"/>
+      <c r="P18" s="45" t="n"/>
+      <c r="Q18" s="45" t="n"/>
+      <c r="R18" s="45" t="n"/>
+      <c r="S18" s="52" t="n"/>
+      <c r="T18" s="45" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="29" t="n">
@@ -1373,24 +1517,28 @@
           <t>2TFU901305U1001</t>
         </is>
       </c>
-      <c r="C19" s="45" t="inlineStr">
+      <c r="C19" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 4k7 1% 200ppm 50mW 0201</t>
         </is>
       </c>
       <c r="D19" s="29" t="n"/>
-      <c r="I19" s="46" t="n"/>
-      <c r="J19" s="46" t="n"/>
-      <c r="K19" s="46" t="n"/>
-      <c r="L19" s="46" t="n"/>
-      <c r="M19" s="46" t="n"/>
-      <c r="N19" s="46" t="n"/>
-      <c r="O19" s="46" t="n"/>
-      <c r="P19" s="46" t="n"/>
-      <c r="Q19" s="46" t="n"/>
-      <c r="R19" s="46" t="n"/>
-      <c r="S19" s="48" t="n"/>
-      <c r="T19" s="46" t="n"/>
+      <c r="E19" s="46" t="n"/>
+      <c r="F19" s="46" t="n"/>
+      <c r="G19" s="46" t="n"/>
+      <c r="H19" s="46" t="n"/>
+      <c r="I19" s="45" t="n"/>
+      <c r="J19" s="45" t="n"/>
+      <c r="K19" s="45" t="n"/>
+      <c r="L19" s="45" t="n"/>
+      <c r="M19" s="45" t="n"/>
+      <c r="N19" s="45" t="n"/>
+      <c r="O19" s="45" t="n"/>
+      <c r="P19" s="45" t="n"/>
+      <c r="Q19" s="45" t="n"/>
+      <c r="R19" s="45" t="n"/>
+      <c r="S19" s="52" t="n"/>
+      <c r="T19" s="45" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="29" t="n">
@@ -1401,44 +1549,44 @@
           <t>2TFU901282U1001</t>
         </is>
       </c>
-      <c r="C20" s="45" t="inlineStr">
+      <c r="C20" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 220pF 5% 25V 0201 COG</t>
         </is>
       </c>
       <c r="D20" s="29" t="n"/>
-      <c r="E20" s="45" t="inlineStr">
+      <c r="E20" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F20" s="45" t="inlineStr">
+      <c r="F20" s="50" t="inlineStr">
         <is>
           <t>C0201C0G221J250NTH</t>
         </is>
       </c>
-      <c r="G20" s="45" t="inlineStr">
+      <c r="G20" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H20" s="45" t="inlineStr">
+      <c r="H20" s="50" t="inlineStr">
         <is>
           <t>0201CG221J250NT</t>
         </is>
       </c>
-      <c r="I20" s="46" t="n"/>
-      <c r="J20" s="46" t="n"/>
-      <c r="K20" s="46" t="n"/>
-      <c r="L20" s="46" t="n"/>
-      <c r="M20" s="46" t="n"/>
-      <c r="N20" s="46" t="n"/>
-      <c r="O20" s="46" t="n"/>
-      <c r="P20" s="46" t="n"/>
-      <c r="Q20" s="46" t="n"/>
-      <c r="R20" s="46" t="n"/>
-      <c r="S20" s="48" t="n"/>
-      <c r="T20" s="46" t="n"/>
+      <c r="I20" s="45" t="n"/>
+      <c r="J20" s="45" t="n"/>
+      <c r="K20" s="45" t="n"/>
+      <c r="L20" s="45" t="n"/>
+      <c r="M20" s="45" t="n"/>
+      <c r="N20" s="45" t="n"/>
+      <c r="O20" s="45" t="n"/>
+      <c r="P20" s="45" t="n"/>
+      <c r="Q20" s="45" t="n"/>
+      <c r="R20" s="45" t="n"/>
+      <c r="S20" s="52" t="n"/>
+      <c r="T20" s="45" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="29" t="n">
@@ -1449,24 +1597,28 @@
           <t>2TFU901321U1001</t>
         </is>
       </c>
-      <c r="C21" s="45" t="inlineStr">
+      <c r="C21" s="50" t="inlineStr">
         <is>
           <t>THT DIP Slide Switch SPST 25P 100mA 90°</t>
         </is>
       </c>
       <c r="D21" s="29" t="n"/>
-      <c r="I21" s="46" t="n"/>
-      <c r="J21" s="46" t="n"/>
-      <c r="K21" s="46" t="n"/>
-      <c r="L21" s="46" t="n"/>
-      <c r="M21" s="46" t="n"/>
-      <c r="N21" s="46" t="n"/>
-      <c r="O21" s="46" t="n"/>
-      <c r="P21" s="46" t="n"/>
-      <c r="Q21" s="46" t="n"/>
-      <c r="R21" s="46" t="n"/>
-      <c r="S21" s="48" t="n"/>
-      <c r="T21" s="46" t="n"/>
+      <c r="E21" s="46" t="n"/>
+      <c r="F21" s="46" t="n"/>
+      <c r="G21" s="46" t="n"/>
+      <c r="H21" s="46" t="n"/>
+      <c r="I21" s="45" t="n"/>
+      <c r="J21" s="45" t="n"/>
+      <c r="K21" s="45" t="n"/>
+      <c r="L21" s="45" t="n"/>
+      <c r="M21" s="45" t="n"/>
+      <c r="N21" s="45" t="n"/>
+      <c r="O21" s="45" t="n"/>
+      <c r="P21" s="45" t="n"/>
+      <c r="Q21" s="45" t="n"/>
+      <c r="R21" s="45" t="n"/>
+      <c r="S21" s="52" t="n"/>
+      <c r="T21" s="45" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="29" t="n">
@@ -1477,60 +1629,60 @@
           <t>2TFU901283U1001</t>
         </is>
       </c>
-      <c r="C22" s="45" t="inlineStr">
+      <c r="C22" s="50" t="inlineStr">
         <is>
           <t>SMD Tant Cap 47u 10% 16V 125C Case C</t>
         </is>
       </c>
       <c r="D22" s="29" t="n"/>
-      <c r="E22" s="45" t="inlineStr">
+      <c r="E22" s="50" t="inlineStr">
         <is>
           <t>Sunlord</t>
         </is>
       </c>
-      <c r="F22" s="45" t="inlineStr">
+      <c r="F22" s="50" t="inlineStr">
         <is>
           <t>TC211C476K016Y</t>
         </is>
       </c>
-      <c r="G22" s="45" t="inlineStr">
+      <c r="G22" s="50" t="inlineStr">
         <is>
           <t>TORCH</t>
         </is>
       </c>
-      <c r="H22" s="45" t="inlineStr">
+      <c r="H22" s="50" t="inlineStr">
         <is>
           <t>CA45-C-16V-47uF-K</t>
         </is>
       </c>
-      <c r="I22" s="45" t="inlineStr">
+      <c r="I22" s="50" t="inlineStr">
         <is>
           <t>Xiangyee</t>
         </is>
       </c>
-      <c r="J22" s="45" t="inlineStr">
+      <c r="J22" s="50" t="inlineStr">
         <is>
           <t>CA45-C016K476T</t>
         </is>
       </c>
-      <c r="K22" s="47" t="inlineStr">
+      <c r="K22" s="51" t="inlineStr">
         <is>
           <t>CEC(Zhenhua Xinyun)</t>
         </is>
       </c>
-      <c r="L22" s="47" t="inlineStr">
+      <c r="L22" s="51" t="inlineStr">
         <is>
           <t>CA45-C-16V-47uF-K</t>
         </is>
       </c>
-      <c r="M22" s="46" t="n"/>
-      <c r="N22" s="46" t="n"/>
-      <c r="O22" s="46" t="n"/>
-      <c r="P22" s="46" t="n"/>
-      <c r="Q22" s="46" t="n"/>
-      <c r="R22" s="46" t="n"/>
-      <c r="S22" s="48" t="n"/>
-      <c r="T22" s="46" t="n"/>
+      <c r="M22" s="45" t="n"/>
+      <c r="N22" s="45" t="n"/>
+      <c r="O22" s="45" t="n"/>
+      <c r="P22" s="45" t="n"/>
+      <c r="Q22" s="45" t="n"/>
+      <c r="R22" s="45" t="n"/>
+      <c r="S22" s="52" t="n"/>
+      <c r="T22" s="45" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -1541,25 +1693,27 @@
           <t>2TFU901312U1001</t>
         </is>
       </c>
-      <c r="C23" s="45" t="inlineStr">
+      <c r="C23" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 100k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="G23" s="46" t="n"/>
-      <c r="H23" s="46" t="n"/>
-      <c r="I23" s="46" t="n"/>
-      <c r="J23" s="46" t="n"/>
-      <c r="K23" s="46" t="n"/>
-      <c r="L23" s="46" t="n"/>
-      <c r="M23" s="46" t="n"/>
-      <c r="N23" s="46" t="n"/>
-      <c r="O23" s="46" t="n"/>
-      <c r="P23" s="46" t="n"/>
-      <c r="Q23" s="46" t="n"/>
-      <c r="R23" s="46" t="n"/>
-      <c r="S23" s="46" t="n"/>
-      <c r="T23" s="46" t="n"/>
+      <c r="E23" s="46" t="n"/>
+      <c r="F23" s="46" t="n"/>
+      <c r="G23" s="45" t="n"/>
+      <c r="H23" s="45" t="n"/>
+      <c r="I23" s="45" t="n"/>
+      <c r="J23" s="45" t="n"/>
+      <c r="K23" s="45" t="n"/>
+      <c r="L23" s="45" t="n"/>
+      <c r="M23" s="45" t="n"/>
+      <c r="N23" s="45" t="n"/>
+      <c r="O23" s="45" t="n"/>
+      <c r="P23" s="45" t="n"/>
+      <c r="Q23" s="45" t="n"/>
+      <c r="R23" s="45" t="n"/>
+      <c r="S23" s="45" t="n"/>
+      <c r="T23" s="45" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
@@ -1570,21 +1724,27 @@
           <t>2TFU901303U1001</t>
         </is>
       </c>
-      <c r="C24" s="45" t="inlineStr">
+      <c r="C24" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 12k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="K24" s="46" t="n"/>
-      <c r="L24" s="46" t="n"/>
-      <c r="M24" s="46" t="n"/>
-      <c r="N24" s="46" t="n"/>
-      <c r="O24" s="46" t="n"/>
-      <c r="P24" s="46" t="n"/>
-      <c r="Q24" s="46" t="n"/>
-      <c r="R24" s="46" t="n"/>
-      <c r="S24" s="46" t="n"/>
-      <c r="T24" s="46" t="n"/>
+      <c r="E24" s="46" t="n"/>
+      <c r="F24" s="46" t="n"/>
+      <c r="G24" s="46" t="n"/>
+      <c r="H24" s="46" t="n"/>
+      <c r="I24" s="46" t="n"/>
+      <c r="J24" s="46" t="n"/>
+      <c r="K24" s="45" t="n"/>
+      <c r="L24" s="45" t="n"/>
+      <c r="M24" s="45" t="n"/>
+      <c r="N24" s="45" t="n"/>
+      <c r="O24" s="45" t="n"/>
+      <c r="P24" s="45" t="n"/>
+      <c r="Q24" s="45" t="n"/>
+      <c r="R24" s="45" t="n"/>
+      <c r="S24" s="45" t="n"/>
+      <c r="T24" s="45" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -1595,43 +1755,43 @@
           <t>2TFU901285U1001</t>
         </is>
       </c>
-      <c r="C25" s="45" t="inlineStr">
+      <c r="C25" s="53" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 1nF 10% 50V 0603 X7R</t>
         </is>
       </c>
-      <c r="E25" s="45" t="inlineStr">
+      <c r="E25" s="53" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F25" s="45" t="inlineStr">
+      <c r="F25" s="53" t="inlineStr">
         <is>
           <t>C0603X7R102K500NTD</t>
         </is>
       </c>
-      <c r="G25" s="45" t="inlineStr">
+      <c r="G25" s="53" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H25" s="45" t="inlineStr">
+      <c r="H25" s="53" t="inlineStr">
         <is>
           <t>0603B102K500NT</t>
         </is>
       </c>
-      <c r="I25" s="46" t="n"/>
-      <c r="J25" s="46" t="n"/>
-      <c r="K25" s="46" t="n"/>
-      <c r="L25" s="46" t="n"/>
-      <c r="M25" s="46" t="n"/>
-      <c r="N25" s="46" t="n"/>
-      <c r="O25" s="46" t="n"/>
-      <c r="P25" s="46" t="n"/>
-      <c r="Q25" s="46" t="n"/>
-      <c r="R25" s="46" t="n"/>
-      <c r="S25" s="46" t="n"/>
-      <c r="T25" s="46" t="n"/>
+      <c r="I25" s="48" t="n"/>
+      <c r="J25" s="48" t="n"/>
+      <c r="K25" s="48" t="n"/>
+      <c r="L25" s="48" t="n"/>
+      <c r="M25" s="48" t="n"/>
+      <c r="N25" s="48" t="n"/>
+      <c r="O25" s="48" t="n"/>
+      <c r="P25" s="48" t="n"/>
+      <c r="Q25" s="48" t="n"/>
+      <c r="R25" s="48" t="n"/>
+      <c r="S25" s="48" t="n"/>
+      <c r="T25" s="48" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -1642,51 +1802,51 @@
           <t>2TFU901278U1001</t>
         </is>
       </c>
-      <c r="C26" s="45" t="inlineStr">
+      <c r="C26" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 8n2 10% 25V 0402 X7R</t>
         </is>
       </c>
-      <c r="E26" s="45" t="inlineStr">
+      <c r="E26" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F26" s="45" t="inlineStr">
+      <c r="F26" s="50" t="inlineStr">
         <is>
           <t>C0402X7R822K250NTB</t>
         </is>
       </c>
-      <c r="G26" s="45" t="inlineStr">
+      <c r="G26" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H26" s="45" t="inlineStr">
+      <c r="H26" s="50" t="inlineStr">
         <is>
           <t>0402B822K250NT</t>
         </is>
       </c>
-      <c r="I26" s="45" t="inlineStr">
+      <c r="I26" s="50" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="J26" s="45" t="inlineStr">
+      <c r="J26" s="50" t="inlineStr">
         <is>
           <t>CC0402KRX7R8BB822</t>
         </is>
       </c>
-      <c r="K26" s="46" t="n"/>
-      <c r="L26" s="46" t="n"/>
-      <c r="M26" s="46" t="n"/>
-      <c r="N26" s="46" t="n"/>
-      <c r="O26" s="46" t="n"/>
-      <c r="P26" s="46" t="n"/>
-      <c r="Q26" s="46" t="n"/>
-      <c r="R26" s="46" t="n"/>
-      <c r="S26" s="46" t="n"/>
-      <c r="T26" s="46" t="n"/>
+      <c r="K26" s="45" t="n"/>
+      <c r="L26" s="45" t="n"/>
+      <c r="M26" s="45" t="n"/>
+      <c r="N26" s="45" t="n"/>
+      <c r="O26" s="45" t="n"/>
+      <c r="P26" s="45" t="n"/>
+      <c r="Q26" s="45" t="n"/>
+      <c r="R26" s="45" t="n"/>
+      <c r="S26" s="45" t="n"/>
+      <c r="T26" s="45" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
@@ -1697,43 +1857,43 @@
           <t>2TFU901281U1001</t>
         </is>
       </c>
-      <c r="C27" s="45" t="inlineStr">
+      <c r="C27" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 10nF 10% 25V 0201 X7R</t>
         </is>
       </c>
-      <c r="E27" s="47" t="inlineStr">
+      <c r="E27" s="51" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F27" s="47" t="inlineStr">
+      <c r="F27" s="51" t="inlineStr">
         <is>
           <t>C0201X7R103K250NTA</t>
         </is>
       </c>
-      <c r="G27" s="47" t="inlineStr">
+      <c r="G27" s="51" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H27" s="47" t="inlineStr">
+      <c r="H27" s="51" t="inlineStr">
         <is>
           <t>0201B103K250NT</t>
         </is>
       </c>
-      <c r="I27" s="46" t="n"/>
-      <c r="J27" s="46" t="n"/>
-      <c r="K27" s="46" t="n"/>
-      <c r="L27" s="46" t="n"/>
-      <c r="M27" s="46" t="n"/>
-      <c r="N27" s="46" t="n"/>
-      <c r="O27" s="46" t="n"/>
-      <c r="P27" s="46" t="n"/>
-      <c r="Q27" s="46" t="n"/>
-      <c r="R27" s="46" t="n"/>
-      <c r="S27" s="46" t="n"/>
-      <c r="T27" s="46" t="n"/>
+      <c r="I27" s="45" t="n"/>
+      <c r="J27" s="45" t="n"/>
+      <c r="K27" s="45" t="n"/>
+      <c r="L27" s="45" t="n"/>
+      <c r="M27" s="45" t="n"/>
+      <c r="N27" s="45" t="n"/>
+      <c r="O27" s="45" t="n"/>
+      <c r="P27" s="45" t="n"/>
+      <c r="Q27" s="45" t="n"/>
+      <c r="R27" s="45" t="n"/>
+      <c r="S27" s="45" t="n"/>
+      <c r="T27" s="45" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -1744,21 +1904,27 @@
           <t>2TFU901323U1001</t>
         </is>
       </c>
-      <c r="C28" s="45" t="inlineStr">
+      <c r="C28" s="50" t="inlineStr">
         <is>
           <t>SMD Unidirectional TVS 15V SMB</t>
         </is>
       </c>
-      <c r="K28" s="46" t="n"/>
-      <c r="L28" s="46" t="n"/>
-      <c r="M28" s="46" t="n"/>
-      <c r="N28" s="46" t="n"/>
-      <c r="O28" s="46" t="n"/>
-      <c r="P28" s="46" t="n"/>
-      <c r="Q28" s="46" t="n"/>
-      <c r="R28" s="46" t="n"/>
-      <c r="S28" s="46" t="n"/>
-      <c r="T28" s="46" t="n"/>
+      <c r="E28" s="46" t="n"/>
+      <c r="F28" s="46" t="n"/>
+      <c r="G28" s="46" t="n"/>
+      <c r="H28" s="46" t="n"/>
+      <c r="I28" s="46" t="n"/>
+      <c r="J28" s="46" t="n"/>
+      <c r="K28" s="45" t="n"/>
+      <c r="L28" s="45" t="n"/>
+      <c r="M28" s="45" t="n"/>
+      <c r="N28" s="45" t="n"/>
+      <c r="O28" s="45" t="n"/>
+      <c r="P28" s="45" t="n"/>
+      <c r="Q28" s="45" t="n"/>
+      <c r="R28" s="45" t="n"/>
+      <c r="S28" s="45" t="n"/>
+      <c r="T28" s="45" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -1769,23 +1935,27 @@
           <t>2TFU901326U1001</t>
         </is>
       </c>
-      <c r="C29" s="45" t="inlineStr">
+      <c r="C29" s="50" t="inlineStr">
         <is>
           <t>SMD LDO 3.3V 180mA 2% SOT23-5</t>
         </is>
       </c>
-      <c r="I29" s="46" t="n"/>
-      <c r="J29" s="46" t="n"/>
-      <c r="K29" s="46" t="n"/>
-      <c r="L29" s="46" t="n"/>
-      <c r="M29" s="46" t="n"/>
-      <c r="N29" s="46" t="n"/>
-      <c r="O29" s="46" t="n"/>
-      <c r="P29" s="46" t="n"/>
-      <c r="Q29" s="46" t="n"/>
-      <c r="R29" s="46" t="n"/>
-      <c r="S29" s="46" t="n"/>
-      <c r="T29" s="46" t="n"/>
+      <c r="E29" s="46" t="n"/>
+      <c r="F29" s="46" t="n"/>
+      <c r="G29" s="46" t="n"/>
+      <c r="H29" s="46" t="n"/>
+      <c r="I29" s="45" t="n"/>
+      <c r="J29" s="45" t="n"/>
+      <c r="K29" s="45" t="n"/>
+      <c r="L29" s="45" t="n"/>
+      <c r="M29" s="45" t="n"/>
+      <c r="N29" s="45" t="n"/>
+      <c r="O29" s="45" t="n"/>
+      <c r="P29" s="45" t="n"/>
+      <c r="Q29" s="45" t="n"/>
+      <c r="R29" s="45" t="n"/>
+      <c r="S29" s="45" t="n"/>
+      <c r="T29" s="45" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -1796,23 +1966,27 @@
           <t>2TFU901328U1001</t>
         </is>
       </c>
-      <c r="C30" s="45" t="inlineStr">
+      <c r="C30" s="50" t="inlineStr">
         <is>
           <t>SMD Voltage Detect 2.2V SOT23-3</t>
         </is>
       </c>
-      <c r="I30" s="46" t="n"/>
-      <c r="J30" s="46" t="n"/>
-      <c r="K30" s="46" t="n"/>
-      <c r="L30" s="46" t="n"/>
-      <c r="M30" s="46" t="n"/>
-      <c r="N30" s="46" t="n"/>
-      <c r="O30" s="46" t="n"/>
-      <c r="P30" s="46" t="n"/>
-      <c r="Q30" s="46" t="n"/>
-      <c r="R30" s="46" t="n"/>
-      <c r="S30" s="46" t="n"/>
-      <c r="T30" s="46" t="n"/>
+      <c r="E30" s="46" t="n"/>
+      <c r="F30" s="46" t="n"/>
+      <c r="G30" s="46" t="n"/>
+      <c r="H30" s="46" t="n"/>
+      <c r="I30" s="45" t="n"/>
+      <c r="J30" s="45" t="n"/>
+      <c r="K30" s="45" t="n"/>
+      <c r="L30" s="45" t="n"/>
+      <c r="M30" s="45" t="n"/>
+      <c r="N30" s="45" t="n"/>
+      <c r="O30" s="45" t="n"/>
+      <c r="P30" s="45" t="n"/>
+      <c r="Q30" s="45" t="n"/>
+      <c r="R30" s="45" t="n"/>
+      <c r="S30" s="45" t="n"/>
+      <c r="T30" s="45" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -1823,43 +1997,43 @@
           <t>2TFU901288U1001</t>
         </is>
       </c>
-      <c r="C31" s="45" t="inlineStr">
+      <c r="C31" s="50" t="inlineStr">
         <is>
           <t>SMD Al-E Cap 22uF 20% 35V D6.3H8</t>
         </is>
       </c>
-      <c r="E31" s="45" t="inlineStr">
+      <c r="E31" s="50" t="inlineStr">
         <is>
           <t>Jianghai</t>
         </is>
       </c>
-      <c r="F31" s="45" t="inlineStr">
+      <c r="F31" s="50" t="inlineStr">
         <is>
           <t>PCV1HVK220MF60</t>
         </is>
       </c>
-      <c r="G31" s="45" t="inlineStr">
+      <c r="G31" s="50" t="inlineStr">
         <is>
           <t>Lelon</t>
         </is>
       </c>
-      <c r="H31" s="45" t="inlineStr">
+      <c r="H31" s="50" t="inlineStr">
         <is>
           <t>VUA220M1VTR-0606L</t>
         </is>
       </c>
-      <c r="I31" s="46" t="n"/>
-      <c r="J31" s="46" t="n"/>
-      <c r="K31" s="46" t="n"/>
-      <c r="L31" s="46" t="n"/>
-      <c r="M31" s="46" t="n"/>
-      <c r="N31" s="46" t="n"/>
-      <c r="O31" s="46" t="n"/>
-      <c r="P31" s="46" t="n"/>
-      <c r="Q31" s="46" t="n"/>
-      <c r="R31" s="46" t="n"/>
-      <c r="S31" s="46" t="n"/>
-      <c r="T31" s="46" t="n"/>
+      <c r="I31" s="45" t="n"/>
+      <c r="J31" s="45" t="n"/>
+      <c r="K31" s="45" t="n"/>
+      <c r="L31" s="45" t="n"/>
+      <c r="M31" s="45" t="n"/>
+      <c r="N31" s="45" t="n"/>
+      <c r="O31" s="45" t="n"/>
+      <c r="P31" s="45" t="n"/>
+      <c r="Q31" s="45" t="n"/>
+      <c r="R31" s="45" t="n"/>
+      <c r="S31" s="45" t="n"/>
+      <c r="T31" s="45" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -1870,25 +2044,27 @@
           <t>2TFU901311U1001</t>
         </is>
       </c>
-      <c r="C32" s="45" t="inlineStr">
+      <c r="C32" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 2k2 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="G32" s="46" t="n"/>
-      <c r="H32" s="46" t="n"/>
-      <c r="I32" s="46" t="n"/>
-      <c r="J32" s="46" t="n"/>
-      <c r="K32" s="46" t="n"/>
-      <c r="L32" s="46" t="n"/>
-      <c r="M32" s="46" t="n"/>
-      <c r="N32" s="46" t="n"/>
-      <c r="O32" s="46" t="n"/>
-      <c r="P32" s="46" t="n"/>
-      <c r="Q32" s="46" t="n"/>
-      <c r="R32" s="46" t="n"/>
-      <c r="S32" s="46" t="n"/>
-      <c r="T32" s="46" t="n"/>
+      <c r="E32" s="46" t="n"/>
+      <c r="F32" s="46" t="n"/>
+      <c r="G32" s="45" t="n"/>
+      <c r="H32" s="45" t="n"/>
+      <c r="I32" s="45" t="n"/>
+      <c r="J32" s="45" t="n"/>
+      <c r="K32" s="45" t="n"/>
+      <c r="L32" s="45" t="n"/>
+      <c r="M32" s="45" t="n"/>
+      <c r="N32" s="45" t="n"/>
+      <c r="O32" s="45" t="n"/>
+      <c r="P32" s="45" t="n"/>
+      <c r="Q32" s="45" t="n"/>
+      <c r="R32" s="45" t="n"/>
+      <c r="S32" s="45" t="n"/>
+      <c r="T32" s="45" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -1899,59 +2075,59 @@
           <t>2TFU901280U1001</t>
         </is>
       </c>
-      <c r="C33" s="45" t="inlineStr">
+      <c r="C33" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 4u7 10% 16V 0805 X7R</t>
         </is>
       </c>
-      <c r="E33" s="45" t="inlineStr">
+      <c r="E33" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F33" s="45" t="inlineStr">
+      <c r="F33" s="50" t="inlineStr">
         <is>
           <t>C0805X7R475K160NTH</t>
         </is>
       </c>
-      <c r="G33" s="45" t="inlineStr">
+      <c r="G33" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H33" s="45" t="inlineStr">
+      <c r="H33" s="50" t="inlineStr">
         <is>
           <t>0805B475K160NT</t>
         </is>
       </c>
-      <c r="I33" s="45" t="inlineStr">
+      <c r="I33" s="50" t="inlineStr">
         <is>
           <t>Walsin</t>
         </is>
       </c>
-      <c r="J33" s="45" t="inlineStr">
+      <c r="J33" s="50" t="inlineStr">
         <is>
           <t>0805B475K160CT</t>
         </is>
       </c>
-      <c r="K33" s="47" t="inlineStr">
+      <c r="K33" s="51" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="L33" s="47" t="inlineStr">
+      <c r="L33" s="51" t="inlineStr">
         <is>
           <t>CC0805KRX7R7BB475</t>
         </is>
       </c>
-      <c r="M33" s="46" t="n"/>
-      <c r="N33" s="46" t="n"/>
-      <c r="O33" s="46" t="n"/>
-      <c r="P33" s="46" t="n"/>
-      <c r="Q33" s="46" t="n"/>
-      <c r="R33" s="46" t="n"/>
-      <c r="S33" s="46" t="n"/>
-      <c r="T33" s="46" t="n"/>
+      <c r="M33" s="45" t="n"/>
+      <c r="N33" s="45" t="n"/>
+      <c r="O33" s="45" t="n"/>
+      <c r="P33" s="45" t="n"/>
+      <c r="Q33" s="45" t="n"/>
+      <c r="R33" s="45" t="n"/>
+      <c r="S33" s="45" t="n"/>
+      <c r="T33" s="45" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -1962,23 +2138,27 @@
           <t>2TFU901306U1001</t>
         </is>
       </c>
-      <c r="C34" s="45" t="inlineStr">
+      <c r="C34" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 0R 1% 200ppm 62.5mW 0402</t>
         </is>
       </c>
-      <c r="I34" s="46" t="n"/>
-      <c r="J34" s="46" t="n"/>
-      <c r="K34" s="46" t="n"/>
-      <c r="L34" s="46" t="n"/>
-      <c r="M34" s="46" t="n"/>
-      <c r="N34" s="46" t="n"/>
-      <c r="O34" s="46" t="n"/>
-      <c r="P34" s="46" t="n"/>
-      <c r="Q34" s="46" t="n"/>
-      <c r="R34" s="46" t="n"/>
-      <c r="S34" s="46" t="n"/>
-      <c r="T34" s="46" t="n"/>
+      <c r="E34" s="46" t="n"/>
+      <c r="F34" s="46" t="n"/>
+      <c r="G34" s="46" t="n"/>
+      <c r="H34" s="46" t="n"/>
+      <c r="I34" s="45" t="n"/>
+      <c r="J34" s="45" t="n"/>
+      <c r="K34" s="45" t="n"/>
+      <c r="L34" s="45" t="n"/>
+      <c r="M34" s="45" t="n"/>
+      <c r="N34" s="45" t="n"/>
+      <c r="O34" s="45" t="n"/>
+      <c r="P34" s="45" t="n"/>
+      <c r="Q34" s="45" t="n"/>
+      <c r="R34" s="45" t="n"/>
+      <c r="S34" s="45" t="n"/>
+      <c r="T34" s="45" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -1989,21 +2169,27 @@
           <t>2TFU901302U1001</t>
         </is>
       </c>
-      <c r="C35" s="45" t="inlineStr">
+      <c r="C35" s="50" t="inlineStr">
         <is>
           <t>SMD Dual N-CH MOS 30V 3.4A SOP-8L</t>
         </is>
       </c>
-      <c r="K35" s="46" t="n"/>
-      <c r="L35" s="46" t="n"/>
-      <c r="M35" s="46" t="n"/>
-      <c r="N35" s="46" t="n"/>
-      <c r="O35" s="46" t="n"/>
-      <c r="P35" s="46" t="n"/>
-      <c r="Q35" s="46" t="n"/>
-      <c r="R35" s="46" t="n"/>
-      <c r="S35" s="46" t="n"/>
-      <c r="T35" s="46" t="n"/>
+      <c r="E35" s="46" t="n"/>
+      <c r="F35" s="46" t="n"/>
+      <c r="G35" s="46" t="n"/>
+      <c r="H35" s="46" t="n"/>
+      <c r="I35" s="46" t="n"/>
+      <c r="J35" s="46" t="n"/>
+      <c r="K35" s="45" t="n"/>
+      <c r="L35" s="45" t="n"/>
+      <c r="M35" s="45" t="n"/>
+      <c r="N35" s="45" t="n"/>
+      <c r="O35" s="45" t="n"/>
+      <c r="P35" s="45" t="n"/>
+      <c r="Q35" s="45" t="n"/>
+      <c r="R35" s="45" t="n"/>
+      <c r="S35" s="45" t="n"/>
+      <c r="T35" s="45" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -2014,23 +2200,27 @@
           <t>2TFU901308U1001</t>
         </is>
       </c>
-      <c r="C36" s="45" t="inlineStr">
+      <c r="C36" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 18k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="I36" s="46" t="n"/>
-      <c r="J36" s="46" t="n"/>
-      <c r="K36" s="46" t="n"/>
-      <c r="L36" s="46" t="n"/>
-      <c r="M36" s="46" t="n"/>
-      <c r="N36" s="46" t="n"/>
-      <c r="O36" s="46" t="n"/>
-      <c r="P36" s="46" t="n"/>
-      <c r="Q36" s="46" t="n"/>
-      <c r="R36" s="46" t="n"/>
-      <c r="S36" s="46" t="n"/>
-      <c r="T36" s="46" t="n"/>
+      <c r="E36" s="46" t="n"/>
+      <c r="F36" s="46" t="n"/>
+      <c r="G36" s="46" t="n"/>
+      <c r="H36" s="46" t="n"/>
+      <c r="I36" s="45" t="n"/>
+      <c r="J36" s="45" t="n"/>
+      <c r="K36" s="45" t="n"/>
+      <c r="L36" s="45" t="n"/>
+      <c r="M36" s="45" t="n"/>
+      <c r="N36" s="45" t="n"/>
+      <c r="O36" s="45" t="n"/>
+      <c r="P36" s="45" t="n"/>
+      <c r="Q36" s="45" t="n"/>
+      <c r="R36" s="45" t="n"/>
+      <c r="S36" s="45" t="n"/>
+      <c r="T36" s="45" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
@@ -2041,23 +2231,27 @@
           <t>2TFU901310U1001</t>
         </is>
       </c>
-      <c r="C37" s="45" t="inlineStr">
+      <c r="C37" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 27k 1% 200ppm 62.5mW 040</t>
         </is>
       </c>
-      <c r="I37" s="46" t="n"/>
-      <c r="J37" s="46" t="n"/>
-      <c r="K37" s="46" t="n"/>
-      <c r="L37" s="46" t="n"/>
-      <c r="M37" s="46" t="n"/>
-      <c r="N37" s="46" t="n"/>
-      <c r="O37" s="46" t="n"/>
-      <c r="P37" s="46" t="n"/>
-      <c r="Q37" s="46" t="n"/>
-      <c r="R37" s="46" t="n"/>
-      <c r="S37" s="46" t="n"/>
-      <c r="T37" s="46" t="n"/>
+      <c r="E37" s="46" t="n"/>
+      <c r="F37" s="46" t="n"/>
+      <c r="G37" s="46" t="n"/>
+      <c r="H37" s="46" t="n"/>
+      <c r="I37" s="45" t="n"/>
+      <c r="J37" s="45" t="n"/>
+      <c r="K37" s="45" t="n"/>
+      <c r="L37" s="45" t="n"/>
+      <c r="M37" s="45" t="n"/>
+      <c r="N37" s="45" t="n"/>
+      <c r="O37" s="45" t="n"/>
+      <c r="P37" s="45" t="n"/>
+      <c r="Q37" s="45" t="n"/>
+      <c r="R37" s="45" t="n"/>
+      <c r="S37" s="45" t="n"/>
+      <c r="T37" s="45" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -2068,23 +2262,27 @@
           <t>2TFU901334U1001</t>
         </is>
       </c>
-      <c r="C38" s="45" t="inlineStr">
+      <c r="C38" s="50" t="inlineStr">
         <is>
           <t>SMD General Diode 1000V 0.7A SOD123</t>
         </is>
       </c>
-      <c r="I38" s="46" t="n"/>
-      <c r="J38" s="46" t="n"/>
-      <c r="K38" s="46" t="n"/>
-      <c r="L38" s="46" t="n"/>
-      <c r="M38" s="46" t="n"/>
-      <c r="N38" s="46" t="n"/>
-      <c r="O38" s="46" t="n"/>
-      <c r="P38" s="46" t="n"/>
-      <c r="Q38" s="46" t="n"/>
-      <c r="R38" s="46" t="n"/>
-      <c r="S38" s="46" t="n"/>
-      <c r="T38" s="46" t="n"/>
+      <c r="E38" s="46" t="n"/>
+      <c r="F38" s="46" t="n"/>
+      <c r="G38" s="46" t="n"/>
+      <c r="H38" s="46" t="n"/>
+      <c r="I38" s="45" t="n"/>
+      <c r="J38" s="45" t="n"/>
+      <c r="K38" s="45" t="n"/>
+      <c r="L38" s="45" t="n"/>
+      <c r="M38" s="45" t="n"/>
+      <c r="N38" s="45" t="n"/>
+      <c r="O38" s="45" t="n"/>
+      <c r="P38" s="45" t="n"/>
+      <c r="Q38" s="45" t="n"/>
+      <c r="R38" s="45" t="n"/>
+      <c r="S38" s="45" t="n"/>
+      <c r="T38" s="45" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -2095,23 +2293,27 @@
           <t>2TFU901322U1001</t>
         </is>
       </c>
-      <c r="C39" s="45" t="inlineStr">
+      <c r="C39" s="50" t="inlineStr">
         <is>
           <t>SMD Quad bidirectional ESD TVS 5V SOT26</t>
         </is>
       </c>
-      <c r="I39" s="46" t="n"/>
-      <c r="J39" s="46" t="n"/>
-      <c r="K39" s="46" t="n"/>
-      <c r="L39" s="46" t="n"/>
-      <c r="M39" s="46" t="n"/>
-      <c r="N39" s="46" t="n"/>
-      <c r="O39" s="46" t="n"/>
-      <c r="P39" s="46" t="n"/>
-      <c r="Q39" s="46" t="n"/>
-      <c r="R39" s="46" t="n"/>
-      <c r="S39" s="46" t="n"/>
-      <c r="T39" s="46" t="n"/>
+      <c r="E39" s="46" t="n"/>
+      <c r="F39" s="46" t="n"/>
+      <c r="G39" s="46" t="n"/>
+      <c r="H39" s="46" t="n"/>
+      <c r="I39" s="45" t="n"/>
+      <c r="J39" s="45" t="n"/>
+      <c r="K39" s="45" t="n"/>
+      <c r="L39" s="45" t="n"/>
+      <c r="M39" s="45" t="n"/>
+      <c r="N39" s="45" t="n"/>
+      <c r="O39" s="45" t="n"/>
+      <c r="P39" s="45" t="n"/>
+      <c r="Q39" s="45" t="n"/>
+      <c r="R39" s="45" t="n"/>
+      <c r="S39" s="45" t="n"/>
+      <c r="T39" s="45" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -2122,25 +2324,27 @@
           <t>2TFU901304U1001</t>
         </is>
       </c>
-      <c r="C40" s="45" t="inlineStr">
+      <c r="C40" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 10k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="G40" s="46" t="n"/>
-      <c r="H40" s="46" t="n"/>
-      <c r="I40" s="46" t="n"/>
-      <c r="J40" s="46" t="n"/>
-      <c r="K40" s="46" t="n"/>
-      <c r="L40" s="46" t="n"/>
-      <c r="M40" s="46" t="n"/>
-      <c r="N40" s="46" t="n"/>
-      <c r="O40" s="46" t="n"/>
-      <c r="P40" s="46" t="n"/>
-      <c r="Q40" s="46" t="n"/>
-      <c r="R40" s="46" t="n"/>
-      <c r="S40" s="46" t="n"/>
-      <c r="T40" s="46" t="n"/>
+      <c r="E40" s="46" t="n"/>
+      <c r="F40" s="46" t="n"/>
+      <c r="G40" s="45" t="n"/>
+      <c r="H40" s="45" t="n"/>
+      <c r="I40" s="45" t="n"/>
+      <c r="J40" s="45" t="n"/>
+      <c r="K40" s="45" t="n"/>
+      <c r="L40" s="45" t="n"/>
+      <c r="M40" s="45" t="n"/>
+      <c r="N40" s="45" t="n"/>
+      <c r="O40" s="45" t="n"/>
+      <c r="P40" s="45" t="n"/>
+      <c r="Q40" s="45" t="n"/>
+      <c r="R40" s="45" t="n"/>
+      <c r="S40" s="45" t="n"/>
+      <c r="T40" s="45" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
@@ -2151,35 +2355,35 @@
           <t>2TFU901287U1001</t>
         </is>
       </c>
-      <c r="C41" s="45" t="inlineStr">
+      <c r="C41" s="50" t="inlineStr">
         <is>
           <t>SMD Al-E Cap 47uF 20% 35V D6.3H8</t>
         </is>
       </c>
-      <c r="E41" s="45" t="inlineStr">
+      <c r="E41" s="50" t="inlineStr">
         <is>
           <t>Jianghai</t>
         </is>
       </c>
-      <c r="F41" s="45" t="inlineStr">
+      <c r="F41" s="50" t="inlineStr">
         <is>
           <t>PCV1VVK470MF60</t>
         </is>
       </c>
-      <c r="G41" s="31" t="n"/>
-      <c r="H41" s="31" t="n"/>
-      <c r="I41" s="46" t="n"/>
-      <c r="J41" s="46" t="n"/>
-      <c r="K41" s="46" t="n"/>
-      <c r="L41" s="46" t="n"/>
-      <c r="M41" s="46" t="n"/>
-      <c r="N41" s="46" t="n"/>
-      <c r="O41" s="46" t="n"/>
-      <c r="P41" s="46" t="n"/>
-      <c r="Q41" s="46" t="n"/>
-      <c r="R41" s="46" t="n"/>
-      <c r="S41" s="46" t="n"/>
-      <c r="T41" s="46" t="n"/>
+      <c r="G41" s="51" t="n"/>
+      <c r="H41" s="51" t="n"/>
+      <c r="I41" s="45" t="n"/>
+      <c r="J41" s="45" t="n"/>
+      <c r="K41" s="45" t="n"/>
+      <c r="L41" s="45" t="n"/>
+      <c r="M41" s="45" t="n"/>
+      <c r="N41" s="45" t="n"/>
+      <c r="O41" s="45" t="n"/>
+      <c r="P41" s="45" t="n"/>
+      <c r="Q41" s="45" t="n"/>
+      <c r="R41" s="45" t="n"/>
+      <c r="S41" s="45" t="n"/>
+      <c r="T41" s="45" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -2190,43 +2394,43 @@
           <t>2TFU901277U1001</t>
         </is>
       </c>
-      <c r="C42" s="45" t="inlineStr">
+      <c r="C42" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 3n3 10% 50V 0402 X7R</t>
         </is>
       </c>
-      <c r="E42" s="45" t="inlineStr">
+      <c r="E42" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F42" s="45" t="inlineStr">
+      <c r="F42" s="50" t="inlineStr">
         <is>
           <t>C0402X7R332K500NTB</t>
         </is>
       </c>
-      <c r="G42" s="45" t="inlineStr">
+      <c r="G42" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H42" s="45" t="inlineStr">
+      <c r="H42" s="50" t="inlineStr">
         <is>
           <t>0402B332K500NT</t>
         </is>
       </c>
-      <c r="I42" s="46" t="n"/>
-      <c r="J42" s="46" t="n"/>
-      <c r="K42" s="46" t="n"/>
-      <c r="L42" s="46" t="n"/>
-      <c r="M42" s="46" t="n"/>
-      <c r="N42" s="46" t="n"/>
-      <c r="O42" s="46" t="n"/>
-      <c r="P42" s="46" t="n"/>
-      <c r="Q42" s="46" t="n"/>
-      <c r="R42" s="46" t="n"/>
-      <c r="S42" s="46" t="n"/>
-      <c r="T42" s="46" t="n"/>
+      <c r="I42" s="45" t="n"/>
+      <c r="J42" s="45" t="n"/>
+      <c r="K42" s="45" t="n"/>
+      <c r="L42" s="45" t="n"/>
+      <c r="M42" s="45" t="n"/>
+      <c r="N42" s="45" t="n"/>
+      <c r="O42" s="45" t="n"/>
+      <c r="P42" s="45" t="n"/>
+      <c r="Q42" s="45" t="n"/>
+      <c r="R42" s="45" t="n"/>
+      <c r="S42" s="45" t="n"/>
+      <c r="T42" s="45" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
@@ -2237,23 +2441,27 @@
           <t>2TFU901309U1001</t>
         </is>
       </c>
-      <c r="C43" s="45" t="inlineStr">
+      <c r="C43" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 22k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="I43" s="46" t="n"/>
-      <c r="J43" s="46" t="n"/>
-      <c r="K43" s="46" t="n"/>
-      <c r="L43" s="46" t="n"/>
-      <c r="M43" s="46" t="n"/>
-      <c r="N43" s="46" t="n"/>
-      <c r="O43" s="46" t="n"/>
-      <c r="P43" s="46" t="n"/>
-      <c r="Q43" s="46" t="n"/>
-      <c r="R43" s="46" t="n"/>
-      <c r="S43" s="46" t="n"/>
-      <c r="T43" s="46" t="n"/>
+      <c r="E43" s="46" t="n"/>
+      <c r="F43" s="46" t="n"/>
+      <c r="G43" s="46" t="n"/>
+      <c r="H43" s="46" t="n"/>
+      <c r="I43" s="45" t="n"/>
+      <c r="J43" s="45" t="n"/>
+      <c r="K43" s="45" t="n"/>
+      <c r="L43" s="45" t="n"/>
+      <c r="M43" s="45" t="n"/>
+      <c r="N43" s="45" t="n"/>
+      <c r="O43" s="45" t="n"/>
+      <c r="P43" s="45" t="n"/>
+      <c r="Q43" s="45" t="n"/>
+      <c r="R43" s="45" t="n"/>
+      <c r="S43" s="45" t="n"/>
+      <c r="T43" s="45" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
@@ -2264,25 +2472,27 @@
           <t>2TFU901298U1001</t>
         </is>
       </c>
-      <c r="C44" s="45" t="inlineStr">
+      <c r="C44" s="50" t="inlineStr">
         <is>
           <t>SMD LED Green 2.1V 30mA 3x1x2mm 90°</t>
         </is>
       </c>
-      <c r="G44" s="46" t="n"/>
-      <c r="H44" s="46" t="n"/>
-      <c r="I44" s="46" t="n"/>
-      <c r="J44" s="46" t="n"/>
-      <c r="K44" s="46" t="n"/>
-      <c r="L44" s="46" t="n"/>
-      <c r="M44" s="46" t="n"/>
-      <c r="N44" s="46" t="n"/>
-      <c r="O44" s="46" t="n"/>
-      <c r="P44" s="46" t="n"/>
-      <c r="Q44" s="46" t="n"/>
-      <c r="R44" s="46" t="n"/>
-      <c r="S44" s="46" t="n"/>
-      <c r="T44" s="46" t="n"/>
+      <c r="E44" s="46" t="n"/>
+      <c r="F44" s="46" t="n"/>
+      <c r="G44" s="45" t="n"/>
+      <c r="H44" s="45" t="n"/>
+      <c r="I44" s="45" t="n"/>
+      <c r="J44" s="45" t="n"/>
+      <c r="K44" s="45" t="n"/>
+      <c r="L44" s="45" t="n"/>
+      <c r="M44" s="45" t="n"/>
+      <c r="N44" s="45" t="n"/>
+      <c r="O44" s="45" t="n"/>
+      <c r="P44" s="45" t="n"/>
+      <c r="Q44" s="45" t="n"/>
+      <c r="R44" s="45" t="n"/>
+      <c r="S44" s="45" t="n"/>
+      <c r="T44" s="45" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
@@ -2293,43 +2503,43 @@
           <t>2TFU901284U1001</t>
         </is>
       </c>
-      <c r="C45" s="45" t="inlineStr">
+      <c r="C45" s="50" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 100nF 10% 50V 0603 X7R</t>
         </is>
       </c>
-      <c r="E45" s="45" t="inlineStr">
+      <c r="E45" s="50" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F45" s="45" t="inlineStr">
+      <c r="F45" s="50" t="inlineStr">
         <is>
           <t>C0603X7R104K500NTD</t>
         </is>
       </c>
-      <c r="G45" s="45" t="inlineStr">
+      <c r="G45" s="50" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H45" s="45" t="inlineStr">
+      <c r="H45" s="50" t="inlineStr">
         <is>
           <t>0603B104K500NT</t>
         </is>
       </c>
-      <c r="I45" s="46" t="n"/>
-      <c r="J45" s="46" t="n"/>
-      <c r="K45" s="46" t="n"/>
-      <c r="L45" s="46" t="n"/>
-      <c r="M45" s="46" t="n"/>
-      <c r="N45" s="46" t="n"/>
-      <c r="O45" s="46" t="n"/>
-      <c r="P45" s="46" t="n"/>
-      <c r="Q45" s="46" t="n"/>
-      <c r="R45" s="46" t="n"/>
-      <c r="S45" s="46" t="n"/>
-      <c r="T45" s="46" t="n"/>
+      <c r="I45" s="45" t="n"/>
+      <c r="J45" s="45" t="n"/>
+      <c r="K45" s="45" t="n"/>
+      <c r="L45" s="45" t="n"/>
+      <c r="M45" s="45" t="n"/>
+      <c r="N45" s="45" t="n"/>
+      <c r="O45" s="45" t="n"/>
+      <c r="P45" s="45" t="n"/>
+      <c r="Q45" s="45" t="n"/>
+      <c r="R45" s="45" t="n"/>
+      <c r="S45" s="45" t="n"/>
+      <c r="T45" s="45" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -2340,23 +2550,27 @@
           <t>2TFU901324U1001</t>
         </is>
       </c>
-      <c r="C46" s="45" t="inlineStr">
+      <c r="C46" s="50" t="inlineStr">
         <is>
           <t>SMD Quad OpAmp SGM8544 TSSOP-14 125C</t>
         </is>
       </c>
-      <c r="I46" s="46" t="n"/>
-      <c r="J46" s="46" t="n"/>
-      <c r="K46" s="46" t="n"/>
-      <c r="L46" s="46" t="n"/>
-      <c r="M46" s="46" t="n"/>
-      <c r="N46" s="46" t="n"/>
-      <c r="O46" s="46" t="n"/>
-      <c r="P46" s="46" t="n"/>
-      <c r="Q46" s="46" t="n"/>
-      <c r="R46" s="46" t="n"/>
-      <c r="S46" s="46" t="n"/>
-      <c r="T46" s="46" t="n"/>
+      <c r="E46" s="46" t="n"/>
+      <c r="F46" s="46" t="n"/>
+      <c r="G46" s="46" t="n"/>
+      <c r="H46" s="46" t="n"/>
+      <c r="I46" s="45" t="n"/>
+      <c r="J46" s="45" t="n"/>
+      <c r="K46" s="45" t="n"/>
+      <c r="L46" s="45" t="n"/>
+      <c r="M46" s="45" t="n"/>
+      <c r="N46" s="45" t="n"/>
+      <c r="O46" s="45" t="n"/>
+      <c r="P46" s="45" t="n"/>
+      <c r="Q46" s="45" t="n"/>
+      <c r="R46" s="45" t="n"/>
+      <c r="S46" s="45" t="n"/>
+      <c r="T46" s="45" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
@@ -2367,25 +2581,27 @@
           <t>2TFU901292U1001</t>
         </is>
       </c>
-      <c r="C47" s="45" t="inlineStr">
+      <c r="C47" s="50" t="inlineStr">
         <is>
           <t>SMD Schottky Diode 70V 70mA SOD323</t>
         </is>
       </c>
-      <c r="G47" s="46" t="n"/>
-      <c r="H47" s="46" t="n"/>
-      <c r="I47" s="46" t="n"/>
-      <c r="J47" s="46" t="n"/>
-      <c r="K47" s="46" t="n"/>
-      <c r="L47" s="46" t="n"/>
-      <c r="M47" s="46" t="n"/>
-      <c r="N47" s="46" t="n"/>
-      <c r="O47" s="46" t="n"/>
-      <c r="P47" s="46" t="n"/>
-      <c r="Q47" s="46" t="n"/>
-      <c r="R47" s="46" t="n"/>
-      <c r="S47" s="46" t="n"/>
-      <c r="T47" s="46" t="n"/>
+      <c r="E47" s="46" t="n"/>
+      <c r="F47" s="46" t="n"/>
+      <c r="G47" s="45" t="n"/>
+      <c r="H47" s="45" t="n"/>
+      <c r="I47" s="45" t="n"/>
+      <c r="J47" s="45" t="n"/>
+      <c r="K47" s="45" t="n"/>
+      <c r="L47" s="45" t="n"/>
+      <c r="M47" s="45" t="n"/>
+      <c r="N47" s="45" t="n"/>
+      <c r="O47" s="45" t="n"/>
+      <c r="P47" s="45" t="n"/>
+      <c r="Q47" s="45" t="n"/>
+      <c r="R47" s="45" t="n"/>
+      <c r="S47" s="45" t="n"/>
+      <c r="T47" s="45" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -2396,23 +2612,27 @@
           <t>2TFU901317U1001</t>
         </is>
       </c>
-      <c r="C48" s="45" t="inlineStr">
+      <c r="C48" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 10R 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="I48" s="46" t="n"/>
-      <c r="J48" s="46" t="n"/>
-      <c r="K48" s="46" t="n"/>
-      <c r="L48" s="46" t="n"/>
-      <c r="M48" s="46" t="n"/>
-      <c r="N48" s="46" t="n"/>
-      <c r="O48" s="46" t="n"/>
-      <c r="P48" s="46" t="n"/>
-      <c r="Q48" s="46" t="n"/>
-      <c r="R48" s="46" t="n"/>
-      <c r="S48" s="46" t="n"/>
-      <c r="T48" s="46" t="n"/>
+      <c r="E48" s="46" t="n"/>
+      <c r="F48" s="46" t="n"/>
+      <c r="G48" s="46" t="n"/>
+      <c r="H48" s="46" t="n"/>
+      <c r="I48" s="45" t="n"/>
+      <c r="J48" s="45" t="n"/>
+      <c r="K48" s="45" t="n"/>
+      <c r="L48" s="45" t="n"/>
+      <c r="M48" s="45" t="n"/>
+      <c r="N48" s="45" t="n"/>
+      <c r="O48" s="45" t="n"/>
+      <c r="P48" s="45" t="n"/>
+      <c r="Q48" s="45" t="n"/>
+      <c r="R48" s="45" t="n"/>
+      <c r="S48" s="45" t="n"/>
+      <c r="T48" s="45" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
@@ -2423,70 +2643,30 @@
           <t>2TFU901295U1001</t>
         </is>
       </c>
-      <c r="C49" s="45" t="inlineStr">
+      <c r="C49" s="50" t="inlineStr">
         <is>
           <t>SMD Zener Diode 4.7V 500mW SOD123</t>
         </is>
       </c>
-      <c r="I49" s="46" t="n"/>
-      <c r="J49" s="46" t="n"/>
-      <c r="K49" s="46" t="n"/>
-      <c r="L49" s="46" t="n"/>
-      <c r="M49" s="46" t="n"/>
-      <c r="N49" s="46" t="n"/>
-      <c r="O49" s="46" t="n"/>
-      <c r="P49" s="46" t="n"/>
-      <c r="Q49" s="46" t="n"/>
-      <c r="R49" s="46" t="n"/>
-      <c r="S49" s="46" t="n"/>
-      <c r="T49" s="46" t="n"/>
+      <c r="E49" s="46" t="n"/>
+      <c r="F49" s="46" t="n"/>
+      <c r="G49" s="46" t="n"/>
+      <c r="H49" s="46" t="n"/>
+      <c r="I49" s="45" t="n"/>
+      <c r="J49" s="45" t="n"/>
+      <c r="K49" s="45" t="n"/>
+      <c r="L49" s="45" t="n"/>
+      <c r="M49" s="45" t="n"/>
+      <c r="N49" s="45" t="n"/>
+      <c r="O49" s="45" t="n"/>
+      <c r="P49" s="45" t="n"/>
+      <c r="Q49" s="45" t="n"/>
+      <c r="R49" s="45" t="n"/>
+      <c r="S49" s="45" t="n"/>
+      <c r="T49" s="45" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>2TFU901329U1001</t>
-        </is>
-      </c>
-      <c r="C50" s="45" t="inlineStr">
-        <is>
-          <t>SMD Cer.Cap 100nF 10% 10V 0201 X7R</t>
-        </is>
-      </c>
-      <c r="E50" s="45" t="inlineStr">
-        <is>
-          <t>Eyang</t>
-        </is>
-      </c>
-      <c r="F50" s="45" t="inlineStr">
-        <is>
-          <t>C0201X7R102K100NTA</t>
-        </is>
-      </c>
-      <c r="G50" s="45" t="inlineStr">
-        <is>
-          <t>FengHua</t>
-        </is>
-      </c>
-      <c r="H50" s="45" t="inlineStr">
-        <is>
-          <t>0201B104K100NT</t>
-        </is>
-      </c>
-      <c r="I50" s="46" t="n"/>
-      <c r="J50" s="46" t="n"/>
-      <c r="K50" s="46" t="n"/>
-      <c r="L50" s="46" t="n"/>
-      <c r="M50" s="46" t="n"/>
-      <c r="N50" s="46" t="n"/>
-      <c r="O50" s="46" t="n"/>
-      <c r="P50" s="46" t="n"/>
-      <c r="Q50" s="46" t="n"/>
-      <c r="R50" s="46" t="n"/>
-      <c r="S50" s="46" t="n"/>
-      <c r="T50" s="46" t="n"/>
+      <c r="B50" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
@@ -2497,25 +2677,27 @@
           <t>2TFU901483U1001</t>
         </is>
       </c>
-      <c r="C51" s="47" t="inlineStr">
+      <c r="C51" s="51" t="inlineStr">
         <is>
           <t>SMD MCU GD32F150CBT7 32BIT 128K LQFP48</t>
         </is>
       </c>
-      <c r="G51" s="46" t="n"/>
-      <c r="H51" s="46" t="n"/>
-      <c r="I51" s="46" t="n"/>
-      <c r="J51" s="46" t="n"/>
-      <c r="K51" s="46" t="n"/>
-      <c r="L51" s="46" t="n"/>
-      <c r="M51" s="46" t="n"/>
-      <c r="N51" s="46" t="n"/>
-      <c r="O51" s="46" t="n"/>
-      <c r="P51" s="46" t="n"/>
-      <c r="Q51" s="46" t="n"/>
-      <c r="R51" s="46" t="n"/>
-      <c r="S51" s="46" t="n"/>
-      <c r="T51" s="46" t="n"/>
+      <c r="E51" s="46" t="n"/>
+      <c r="F51" s="46" t="n"/>
+      <c r="G51" s="45" t="n"/>
+      <c r="H51" s="45" t="n"/>
+      <c r="I51" s="45" t="n"/>
+      <c r="J51" s="45" t="n"/>
+      <c r="K51" s="45" t="n"/>
+      <c r="L51" s="45" t="n"/>
+      <c r="M51" s="45" t="n"/>
+      <c r="N51" s="45" t="n"/>
+      <c r="O51" s="45" t="n"/>
+      <c r="P51" s="45" t="n"/>
+      <c r="Q51" s="45" t="n"/>
+      <c r="R51" s="45" t="n"/>
+      <c r="S51" s="45" t="n"/>
+      <c r="T51" s="45" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
@@ -2526,23 +2708,27 @@
           <t>2TFU901313U1001</t>
         </is>
       </c>
-      <c r="C52" s="45" t="inlineStr">
+      <c r="C52" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFim Res 10MEG 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="I52" s="46" t="n"/>
-      <c r="J52" s="46" t="n"/>
-      <c r="K52" s="46" t="n"/>
-      <c r="L52" s="46" t="n"/>
-      <c r="M52" s="46" t="n"/>
-      <c r="N52" s="46" t="n"/>
-      <c r="O52" s="46" t="n"/>
-      <c r="P52" s="46" t="n"/>
-      <c r="Q52" s="46" t="n"/>
-      <c r="R52" s="46" t="n"/>
-      <c r="S52" s="46" t="n"/>
-      <c r="T52" s="46" t="n"/>
+      <c r="E52" s="46" t="n"/>
+      <c r="F52" s="46" t="n"/>
+      <c r="G52" s="46" t="n"/>
+      <c r="H52" s="46" t="n"/>
+      <c r="I52" s="45" t="n"/>
+      <c r="J52" s="45" t="n"/>
+      <c r="K52" s="45" t="n"/>
+      <c r="L52" s="45" t="n"/>
+      <c r="M52" s="45" t="n"/>
+      <c r="N52" s="45" t="n"/>
+      <c r="O52" s="45" t="n"/>
+      <c r="P52" s="45" t="n"/>
+      <c r="Q52" s="45" t="n"/>
+      <c r="R52" s="45" t="n"/>
+      <c r="S52" s="45" t="n"/>
+      <c r="T52" s="45" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
@@ -2553,21 +2739,27 @@
           <t>2TFU901301U1001</t>
         </is>
       </c>
-      <c r="C53" s="45" t="inlineStr">
+      <c r="C53" s="50" t="inlineStr">
         <is>
           <t>SMD NPN Transistor BC846B 65V 0.1A SOT-3</t>
         </is>
       </c>
-      <c r="K53" s="46" t="n"/>
-      <c r="L53" s="46" t="n"/>
-      <c r="M53" s="46" t="n"/>
-      <c r="N53" s="46" t="n"/>
-      <c r="O53" s="46" t="n"/>
-      <c r="P53" s="46" t="n"/>
-      <c r="Q53" s="46" t="n"/>
-      <c r="R53" s="46" t="n"/>
-      <c r="S53" s="46" t="n"/>
-      <c r="T53" s="46" t="n"/>
+      <c r="E53" s="46" t="n"/>
+      <c r="F53" s="46" t="n"/>
+      <c r="G53" s="46" t="n"/>
+      <c r="H53" s="46" t="n"/>
+      <c r="I53" s="46" t="n"/>
+      <c r="J53" s="46" t="n"/>
+      <c r="K53" s="45" t="n"/>
+      <c r="L53" s="45" t="n"/>
+      <c r="M53" s="45" t="n"/>
+      <c r="N53" s="45" t="n"/>
+      <c r="O53" s="45" t="n"/>
+      <c r="P53" s="45" t="n"/>
+      <c r="Q53" s="45" t="n"/>
+      <c r="R53" s="45" t="n"/>
+      <c r="S53" s="45" t="n"/>
+      <c r="T53" s="45" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
@@ -2578,23 +2770,27 @@
           <t>2TFU901320U1001</t>
         </is>
       </c>
-      <c r="C54" s="45" t="inlineStr">
+      <c r="C54" s="50" t="inlineStr">
         <is>
           <t>SMD ThkFilm Res 100R 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="I54" s="46" t="n"/>
-      <c r="J54" s="46" t="n"/>
-      <c r="K54" s="46" t="n"/>
-      <c r="L54" s="46" t="n"/>
-      <c r="M54" s="46" t="n"/>
-      <c r="N54" s="46" t="n"/>
-      <c r="O54" s="46" t="n"/>
-      <c r="P54" s="46" t="n"/>
-      <c r="Q54" s="46" t="n"/>
-      <c r="R54" s="46" t="n"/>
-      <c r="S54" s="46" t="n"/>
-      <c r="T54" s="46" t="n"/>
+      <c r="E54" s="46" t="n"/>
+      <c r="F54" s="46" t="n"/>
+      <c r="G54" s="46" t="n"/>
+      <c r="H54" s="46" t="n"/>
+      <c r="I54" s="45" t="n"/>
+      <c r="J54" s="45" t="n"/>
+      <c r="K54" s="45" t="n"/>
+      <c r="L54" s="45" t="n"/>
+      <c r="M54" s="45" t="n"/>
+      <c r="N54" s="45" t="n"/>
+      <c r="O54" s="45" t="n"/>
+      <c r="P54" s="45" t="n"/>
+      <c r="Q54" s="45" t="n"/>
+      <c r="R54" s="45" t="n"/>
+      <c r="S54" s="45" t="n"/>
+      <c r="T54" s="45" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:S7"/>
@@ -2606,6 +2802,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -2617,8 +2814,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2911,22 +3108,22 @@
         </is>
       </c>
       <c r="D8" s="29" t="n"/>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E8" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="F8" s="54" t="inlineStr">
         <is>
           <t>RC-01W183FT</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="G8" s="54" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" s="54" t="inlineStr">
         <is>
           <t>AC0201FR-0718KL</t>
         </is>
@@ -2948,32 +3145,32 @@
         </is>
       </c>
       <c r="D9" s="29" t="n"/>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E9" s="54" t="inlineStr">
         <is>
           <t>DOWOSEMI</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr">
+      <c r="F9" s="54" t="inlineStr">
         <is>
           <t>SMBJ15A</t>
         </is>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="G9" s="54" t="inlineStr">
         <is>
           <t>Changjing</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" s="54" t="inlineStr">
         <is>
           <t>SMBJ15A</t>
         </is>
       </c>
-      <c r="I9" s="0" t="inlineStr">
+      <c r="I9" s="54" t="inlineStr">
         <is>
           <t>LGE</t>
         </is>
       </c>
-      <c r="J9" s="0" t="inlineStr">
+      <c r="J9" s="54" t="inlineStr">
         <is>
           <t>SMBJ15A</t>
         </is>
@@ -2995,22 +3192,22 @@
         </is>
       </c>
       <c r="D10" s="29" t="n"/>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E10" s="54" t="inlineStr">
         <is>
           <t>DOWOSEMI</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr">
+      <c r="F10" s="54" t="inlineStr">
         <is>
           <t>SML4728A</t>
         </is>
       </c>
-      <c r="G10" s="0" t="inlineStr">
+      <c r="G10" s="54" t="inlineStr">
         <is>
           <t>Yangjie</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" s="54" t="inlineStr">
         <is>
           <t>MMSZ4V7CW</t>
         </is>
@@ -3032,32 +3229,32 @@
         </is>
       </c>
       <c r="D11" s="29" t="n"/>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" s="54" t="inlineStr">
         <is>
           <t>HRO</t>
         </is>
       </c>
-      <c r="F11" s="0" t="inlineStr">
+      <c r="F11" s="54" t="inlineStr">
         <is>
           <t>U-M-M5SS-W-2</t>
         </is>
       </c>
-      <c r="G11" s="0" t="inlineStr">
+      <c r="G11" s="54" t="inlineStr">
         <is>
           <t>SOFNG</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" s="54" t="inlineStr">
         <is>
           <t>CZ-514</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="I11" s="54" t="inlineStr">
         <is>
           <t>Greenconn</t>
         </is>
       </c>
-      <c r="J11" s="0" t="inlineStr">
+      <c r="J11" s="54" t="inlineStr">
         <is>
           <t>US01-EBD001-1X05-05C1AH-DM-C1</t>
         </is>
@@ -3079,32 +3276,32 @@
         </is>
       </c>
       <c r="D12" s="29" t="n"/>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E12" s="54" t="inlineStr">
         <is>
           <t>DOWOSEMI</t>
         </is>
       </c>
-      <c r="F12" s="0" t="inlineStr">
+      <c r="F12" s="54" t="inlineStr">
         <is>
           <t>MB6S</t>
         </is>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="G12" s="54" t="inlineStr">
         <is>
           <t>LGE</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" s="54" t="inlineStr">
         <is>
           <t>MB6S</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
+      <c r="I12" s="54" t="inlineStr">
         <is>
           <t>Yangjie</t>
         </is>
       </c>
-      <c r="J12" s="0" t="inlineStr">
+      <c r="J12" s="54" t="inlineStr">
         <is>
           <t>MB6S</t>
         </is>
@@ -3157,33 +3354,44 @@
           <t>2TFU901329U1001</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="C14" s="55" t="inlineStr">
         <is>
           <t>SMD Cer.Cap 100nF 10% 10V 0201 X7R</t>
         </is>
       </c>
-      <c r="D14" s="29" t="n"/>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" s="56" t="n"/>
+      <c r="E14" s="55" t="inlineStr">
         <is>
           <t>Eyang</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr">
+      <c r="F14" s="55" t="inlineStr">
         <is>
           <t>C0201X7R102K100NTA</t>
         </is>
       </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="G14" s="55" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H14" s="55" t="inlineStr">
         <is>
           <t>0201B104K100NT</t>
         </is>
       </c>
-      <c r="S14" s="29" t="n"/>
+      <c r="I14" s="49" t="n"/>
+      <c r="J14" s="49" t="n"/>
+      <c r="K14" s="49" t="n"/>
+      <c r="L14" s="49" t="n"/>
+      <c r="M14" s="49" t="n"/>
+      <c r="N14" s="49" t="n"/>
+      <c r="O14" s="49" t="n"/>
+      <c r="P14" s="49" t="n"/>
+      <c r="Q14" s="49" t="n"/>
+      <c r="R14" s="49" t="n"/>
+      <c r="S14" s="56" t="n"/>
+      <c r="T14" s="49" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="29" t="n">
@@ -3237,32 +3445,32 @@
         </is>
       </c>
       <c r="D16" s="29" t="n"/>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="E16" s="54" t="inlineStr">
         <is>
           <t>Yangjie</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr">
+      <c r="F16" s="54" t="inlineStr">
         <is>
           <t>BC846BW</t>
         </is>
       </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="G16" s="54" t="inlineStr">
         <is>
           <t>LRC</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H16" s="54" t="inlineStr">
         <is>
           <t>LBC846BWT1G</t>
         </is>
       </c>
-      <c r="I16" s="0" t="inlineStr">
+      <c r="I16" s="54" t="inlineStr">
         <is>
           <t>Hottech</t>
         </is>
       </c>
-      <c r="J16" s="0" t="inlineStr">
+      <c r="J16" s="54" t="inlineStr">
         <is>
           <t>BC846BW</t>
         </is>
@@ -3284,22 +3492,22 @@
         </is>
       </c>
       <c r="D17" s="29" t="n"/>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="E17" s="54" t="inlineStr">
         <is>
           <t>Microne</t>
         </is>
       </c>
-      <c r="F17" s="0" t="inlineStr">
+      <c r="F17" s="54" t="inlineStr">
         <is>
           <t>ME2804A22M3G</t>
         </is>
       </c>
-      <c r="G17" s="0" t="inlineStr">
+      <c r="G17" s="54" t="inlineStr">
         <is>
           <t>Microne</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H17" s="54" t="inlineStr">
         <is>
           <t>ME2808A22M3G</t>
         </is>
@@ -3321,32 +3529,32 @@
         </is>
       </c>
       <c r="D18" s="29" t="n"/>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="E18" s="54" t="inlineStr">
         <is>
           <t>RALEC</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr">
+      <c r="F18" s="54" t="inlineStr">
         <is>
           <t>RTT252R20FTE</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="G18" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H18" s="54" t="inlineStr">
         <is>
           <t>RC-12W2R2FT</t>
         </is>
       </c>
-      <c r="I18" s="0" t="inlineStr">
+      <c r="I18" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="J18" s="0" t="inlineStr">
+      <c r="J18" s="54" t="inlineStr">
         <is>
           <t>25121WF220KT4E</t>
         </is>
@@ -3368,32 +3576,32 @@
         </is>
       </c>
       <c r="D19" s="29" t="n"/>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="E19" s="54" t="inlineStr">
         <is>
           <t>JJM</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr">
+      <c r="F19" s="54" t="inlineStr">
         <is>
           <t>JMSL0315APD</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="G19" s="54" t="inlineStr">
         <is>
           <t>Hottech</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H19" s="54" t="inlineStr">
         <is>
           <t>AO4812</t>
         </is>
       </c>
-      <c r="I19" s="0" t="inlineStr">
+      <c r="I19" s="54" t="inlineStr">
         <is>
           <t>NCE</t>
         </is>
       </c>
-      <c r="J19" s="0" t="inlineStr">
+      <c r="J19" s="54" t="inlineStr">
         <is>
           <t>NCE6005AS</t>
         </is>
@@ -3415,22 +3623,22 @@
         </is>
       </c>
       <c r="D20" s="29" t="n"/>
-      <c r="E20" s="0" t="inlineStr">
+      <c r="E20" s="54" t="inlineStr">
         <is>
           <t>3PEAK</t>
         </is>
       </c>
-      <c r="F20" s="0" t="inlineStr">
+      <c r="F20" s="54" t="inlineStr">
         <is>
           <t>TPL810F33-5TR</t>
         </is>
       </c>
-      <c r="G20" s="0" t="inlineStr">
+      <c r="G20" s="54" t="inlineStr">
         <is>
           <t>WILLSEMI</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H20" s="54" t="inlineStr">
         <is>
           <t>WL2851E33-5/TR</t>
         </is>
@@ -3452,32 +3660,32 @@
         </is>
       </c>
       <c r="D21" s="29" t="n"/>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="E21" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F21" s="0" t="inlineStr">
+      <c r="F21" s="54" t="inlineStr">
         <is>
           <t>RC-01W123FT</t>
         </is>
       </c>
-      <c r="G21" s="0" t="inlineStr">
+      <c r="G21" s="54" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H21" s="54" t="inlineStr">
         <is>
           <t>AC0201FR-0712KL</t>
         </is>
       </c>
-      <c r="I21" s="0" t="inlineStr">
+      <c r="I21" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="J21" s="0" t="inlineStr">
+      <c r="J21" s="54" t="inlineStr">
         <is>
           <t>0201WMF1202TEE</t>
         </is>
@@ -3499,12 +3707,12 @@
         </is>
       </c>
       <c r="D22" s="29" t="n"/>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="E22" s="54" t="inlineStr">
         <is>
           <t>Kingbright</t>
         </is>
       </c>
-      <c r="F22" s="0" t="inlineStr">
+      <c r="F22" s="54" t="inlineStr">
         <is>
           <t>KPA-3010CGCK</t>
         </is>
@@ -3525,22 +3733,22 @@
           <t>SMD Quad OpAmp SGM8544 TSSOP-14 125C</t>
         </is>
       </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="E23" s="54" t="inlineStr">
         <is>
           <t>SGMICRO</t>
         </is>
       </c>
-      <c r="F23" s="0" t="inlineStr">
+      <c r="F23" s="54" t="inlineStr">
         <is>
           <t>SGM8544XTS14/TR</t>
         </is>
       </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="G23" s="54" t="inlineStr">
         <is>
           <t>Gainsil</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H23" s="54" t="inlineStr">
         <is>
           <t>GS6004-TR</t>
         </is>
@@ -3560,22 +3768,22 @@
           <t>SMD General Diode 1000V 0.7A SOD123</t>
         </is>
       </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="E24" s="54" t="inlineStr">
         <is>
           <t>STARSEA</t>
         </is>
       </c>
-      <c r="F24" s="0" t="inlineStr">
+      <c r="F24" s="54" t="inlineStr">
         <is>
           <t>RS07M</t>
         </is>
       </c>
-      <c r="G24" s="0" t="inlineStr">
+      <c r="G24" s="54" t="inlineStr">
         <is>
           <t>Pingwei</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
+      <c r="H24" s="54" t="inlineStr">
         <is>
           <t>RS07M</t>
         </is>
@@ -3595,22 +3803,22 @@
           <t>THT PCB Ternimal male 2P 2.5mm 3A 250V w</t>
         </is>
       </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="E25" s="54" t="inlineStr">
         <is>
           <t>TXGA</t>
         </is>
       </c>
-      <c r="F25" s="0" t="inlineStr">
+      <c r="F25" s="54" t="inlineStr">
         <is>
           <t>FWF25001-S02S22W1B</t>
         </is>
       </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="G25" s="54" t="inlineStr">
         <is>
           <t>CJT</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
+      <c r="H25" s="54" t="inlineStr">
         <is>
           <t>A2501WV-F-2P</t>
         </is>
@@ -3630,22 +3838,22 @@
           <t>THT DIP Slide Switch SPST 25P 100mA 90°</t>
         </is>
       </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="E26" s="54" t="inlineStr">
         <is>
           <t>CTS</t>
         </is>
       </c>
-      <c r="F26" s="0" t="inlineStr">
+      <c r="F26" s="54" t="inlineStr">
         <is>
           <t>209S025RAS-G2</t>
         </is>
       </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="G26" s="54" t="inlineStr">
         <is>
           <t>CTS</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="H26" s="54" t="inlineStr">
         <is>
           <t>209S025RAST-G3</t>
         </is>
@@ -3675,12 +3883,12 @@
           <t>PCV1VVK470MF60</t>
         </is>
       </c>
-      <c r="G27" s="0" t="inlineStr">
+      <c r="G27" s="54" t="inlineStr">
         <is>
           <t>Lelon</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H27" s="54" t="inlineStr">
         <is>
           <t>VUA470M1VTR-0607</t>
         </is>
@@ -3700,22 +3908,22 @@
           <t>SMD Quad bidirectional ESD TVS 5V SOT26</t>
         </is>
       </c>
-      <c r="E28" s="0" t="inlineStr">
+      <c r="E28" s="54" t="inlineStr">
         <is>
           <t>Leiditech</t>
         </is>
       </c>
-      <c r="F28" s="0" t="inlineStr">
+      <c r="F28" s="54" t="inlineStr">
         <is>
           <t>SMS05CC</t>
         </is>
       </c>
-      <c r="G28" s="0" t="inlineStr">
+      <c r="G28" s="54" t="inlineStr">
         <is>
           <t>Leiditech</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H28" s="54" t="inlineStr">
         <is>
           <t>SQV05C</t>
         </is>
@@ -3760,12 +3968,12 @@
           <t>SMD Schottky Diode 70V 70mA SOD323</t>
         </is>
       </c>
-      <c r="E30" s="0" t="inlineStr">
+      <c r="E30" s="54" t="inlineStr">
         <is>
           <t>Changjing</t>
         </is>
       </c>
-      <c r="F30" s="0" t="inlineStr">
+      <c r="F30" s="54" t="inlineStr">
         <is>
           <t>BAS70WS</t>
         </is>
@@ -3832,22 +4040,22 @@
           <t>SMD ThkFilm Res 0R 1% 200ppm 62.5mW 0402</t>
         </is>
       </c>
-      <c r="E32" s="0" t="inlineStr">
+      <c r="E32" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F32" s="0" t="inlineStr">
+      <c r="F32" s="54" t="inlineStr">
         <is>
           <t>RC-02W0R0JT</t>
         </is>
       </c>
-      <c r="G32" s="0" t="inlineStr">
+      <c r="G32" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H32" s="54" t="inlineStr">
         <is>
           <t>0402WGF0000TCE</t>
         </is>
@@ -3867,12 +4075,12 @@
           <t>SMD ThkFilm Res 10k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E33" s="0" t="inlineStr">
+      <c r="E33" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F33" s="0" t="inlineStr">
+      <c r="F33" s="54" t="inlineStr">
         <is>
           <t>RC-01W1002FT</t>
         </is>
@@ -3892,22 +4100,22 @@
           <t>SMD ThkFilm Res 4k7 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E34" s="0" t="inlineStr">
+      <c r="E34" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F34" s="0" t="inlineStr">
+      <c r="F34" s="54" t="inlineStr">
         <is>
           <t>RC-01W472FT</t>
         </is>
       </c>
-      <c r="G34" s="0" t="inlineStr">
+      <c r="G34" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H34" s="54" t="inlineStr">
         <is>
           <t>0201WMF4701TEE</t>
         </is>
@@ -3927,32 +4135,32 @@
           <t>SMD ThkFilm Res 1k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E35" s="0" t="inlineStr">
+      <c r="E35" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F35" s="0" t="inlineStr">
+      <c r="F35" s="54" t="inlineStr">
         <is>
           <t>RC-01W102FT</t>
         </is>
       </c>
-      <c r="G35" s="0" t="inlineStr">
+      <c r="G35" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H35" s="54" t="inlineStr">
         <is>
           <t>0201WMF1001TCE</t>
         </is>
       </c>
-      <c r="I35" s="0" t="inlineStr">
+      <c r="I35" s="54" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="J35" s="0" t="inlineStr">
+      <c r="J35" s="54" t="inlineStr">
         <is>
           <t>RC0201FR-071KL</t>
         </is>
@@ -4007,22 +4215,22 @@
           <t>SMD ThkFilm Res 27k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E37" s="0" t="inlineStr">
+      <c r="E37" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F37" s="0" t="inlineStr">
+      <c r="F37" s="54" t="inlineStr">
         <is>
           <t>RC-01W273FT</t>
         </is>
       </c>
-      <c r="G37" s="0" t="inlineStr">
+      <c r="G37" s="54" t="inlineStr">
         <is>
           <t>Walsin</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H37" s="54" t="inlineStr">
         <is>
           <t>WR02X2702FAL</t>
         </is>
@@ -4042,22 +4250,22 @@
           <t>SMD ThkFm Res 100k 1% 200ppm 62.5mW 0402</t>
         </is>
       </c>
-      <c r="E38" s="0" t="inlineStr">
+      <c r="E38" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F38" s="0" t="inlineStr">
+      <c r="F38" s="54" t="inlineStr">
         <is>
           <t>RC-02W1003FT</t>
         </is>
       </c>
-      <c r="G38" s="0" t="inlineStr">
+      <c r="G38" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
+      <c r="H38" s="54" t="inlineStr">
         <is>
           <t>0402WGF1003TCE</t>
         </is>
@@ -4077,12 +4285,12 @@
           <t>SMD LED Red 2.1V 30mA 3x1x2mm 90°</t>
         </is>
       </c>
-      <c r="E39" s="0" t="inlineStr">
+      <c r="E39" s="54" t="inlineStr">
         <is>
           <t>Kingbright</t>
         </is>
       </c>
-      <c r="F39" s="0" t="inlineStr">
+      <c r="F39" s="54" t="inlineStr">
         <is>
           <t>KPA-3010SURCK</t>
         </is>
@@ -4167,12 +4375,12 @@
           <t>0805B475K160CT</t>
         </is>
       </c>
-      <c r="K41" s="30" t="inlineStr">
+      <c r="K41" s="57" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="L41" s="30" t="inlineStr">
+      <c r="L41" s="57" t="inlineStr">
         <is>
           <t>CC0805KRX7R7BB47*</t>
         </is>
@@ -4237,22 +4445,22 @@
           <t>SMD ThkFilm Res 27k 1% 200ppm 62.5mW 040</t>
         </is>
       </c>
-      <c r="E43" s="0" t="inlineStr">
+      <c r="E43" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F43" s="0" t="inlineStr">
+      <c r="F43" s="54" t="inlineStr">
         <is>
           <t>RC-02W273FT</t>
         </is>
       </c>
-      <c r="G43" s="0" t="inlineStr">
+      <c r="G43" s="54" t="inlineStr">
         <is>
           <t>ROYALOHM</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
+      <c r="H43" s="54" t="inlineStr">
         <is>
           <t>0402WGF2702TCE</t>
         </is>
@@ -4272,12 +4480,12 @@
           <t>SMD MCU GD32E103CBT7 32BIT 128K LQFP48</t>
         </is>
       </c>
-      <c r="E44" s="0" t="inlineStr">
+      <c r="E44" s="54" t="inlineStr">
         <is>
           <t>GigaDevice</t>
         </is>
       </c>
-      <c r="F44" s="0" t="inlineStr">
+      <c r="F44" s="54" t="inlineStr">
         <is>
           <t>GD32E103CBT7</t>
         </is>
@@ -4297,12 +4505,12 @@
           <t>SMD ThkFilm Res 2k2 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E45" s="0" t="inlineStr">
+      <c r="E45" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F45" s="0" t="inlineStr">
+      <c r="F45" s="54" t="inlineStr">
         <is>
           <t>RC-01W2201FT</t>
         </is>
@@ -4322,22 +4530,22 @@
           <t>SMD ThkFilm Res 10R 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E46" s="0" t="inlineStr">
+      <c r="E46" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F46" s="0" t="inlineStr">
+      <c r="F46" s="54" t="inlineStr">
         <is>
           <t>RC-01W10R0FT</t>
         </is>
       </c>
-      <c r="G46" s="0" t="inlineStr">
+      <c r="G46" s="54" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
+      <c r="H46" s="54" t="inlineStr">
         <is>
           <t>RC0201FR-0710RL</t>
         </is>
@@ -4357,22 +4565,22 @@
           <t>SMD ThkFilm Res 22k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E47" s="0" t="inlineStr">
+      <c r="E47" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F47" s="0" t="inlineStr">
+      <c r="F47" s="54" t="inlineStr">
         <is>
           <t>RC-01W223FT</t>
         </is>
       </c>
-      <c r="G47" s="0" t="inlineStr">
+      <c r="G47" s="54" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
+      <c r="H47" s="54" t="inlineStr">
         <is>
           <t>RC0201FR-0722KL</t>
         </is>
@@ -4487,22 +4695,22 @@
           <t>SMD ThkFim Res 10MEG 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E51" s="0" t="inlineStr">
+      <c r="E51" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F51" s="0" t="inlineStr">
+      <c r="F51" s="54" t="inlineStr">
         <is>
           <t>RC-01W106FT</t>
         </is>
       </c>
-      <c r="G51" s="0" t="inlineStr">
+      <c r="G51" s="54" t="inlineStr">
         <is>
           <t>Walsin</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
+      <c r="H51" s="54" t="inlineStr">
         <is>
           <t>WR02W1005FAL</t>
         </is>
@@ -4522,12 +4730,12 @@
           <t>SMD ThkFilm Res 100k 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E52" s="0" t="inlineStr">
+      <c r="E52" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F52" s="0" t="inlineStr">
+      <c r="F52" s="54" t="inlineStr">
         <is>
           <t>RC-01W1003FT</t>
         </is>
@@ -4547,61 +4755,29 @@
           <t>SMD ThkFilm Res 100R 1% 200ppm 50mW 0201</t>
         </is>
       </c>
-      <c r="E53" s="0" t="inlineStr">
+      <c r="E53" s="54" t="inlineStr">
         <is>
           <t>FengHua</t>
         </is>
       </c>
-      <c r="F53" s="0" t="inlineStr">
+      <c r="F53" s="54" t="inlineStr">
         <is>
           <t>RC-01W101FT</t>
         </is>
       </c>
-      <c r="G53" s="0" t="inlineStr">
+      <c r="G53" s="54" t="inlineStr">
         <is>
           <t>Yageo</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H53" s="54" t="inlineStr">
         <is>
           <t>RC0201FR-07100RL</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>2TFU901285U1001</t>
-        </is>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>SMD Cer.Cap 1nF 10% 50V 0603 X7R</t>
-        </is>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t>Eyang</t>
-        </is>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>C0603X7R102K500NTD</t>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr">
-        <is>
-          <t>FengHua</t>
-        </is>
-      </c>
-      <c r="H54" s="0" t="inlineStr">
-        <is>
-          <t>0603B102K500NT</t>
-        </is>
-      </c>
+      <c r="B54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:S7"/>
@@ -4613,6 +4789,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -10507,4 +10684,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d792d246-d363-40e2-82bc-6f0655128b68}" enabled="1" method="Standard" siteId="{372ee9e0-9ce0-4033-a64a-c07073a91ecd}" removed="0"/>
+</clbl:labelList>
 </file>